--- a/disagreement_matrix/engineering_version/rsj_matrix_records/WPBC_withoutdupl_norm_self_sum.xlsx
+++ b/disagreement_matrix/engineering_version/rsj_matrix_records/WPBC_withoutdupl_norm_self_sum.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I199"/>
+  <dimension ref="A1:H199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -394,5750 +394,5153 @@
       <c r="H1" s="1">
         <v>6</v>
       </c>
-      <c r="I1" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.0002923135576776478</v>
+        <v>0.0002960638340993668</v>
       </c>
       <c r="C2">
-        <v>0.000194846632302143</v>
+        <v>0.0002350338948422602</v>
       </c>
       <c r="D2">
-        <v>0.0001458924810976591</v>
+        <v>0.0001627485342930257</v>
       </c>
       <c r="E2">
-        <v>0.0002567475143333464</v>
+        <v>0.0002589793135192054</v>
       </c>
       <c r="F2">
-        <v>0.0001318069896813112</v>
+        <v>0.0001665021243120259</v>
       </c>
       <c r="G2">
-        <v>0.0002260277198690857</v>
+        <v>0.0002737571827218053</v>
       </c>
       <c r="H2">
-        <v>0.000181101324284196</v>
-      </c>
-      <c r="I2">
-        <v>0.0001768461730631636</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>0.0001883818067854948</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.002400632718577292</v>
+        <v>0.002809625044874121</v>
       </c>
       <c r="C3">
-        <v>0.0008221066155955843</v>
+        <v>0.0009235344325026041</v>
       </c>
       <c r="D3">
-        <v>0.0009537394004116874</v>
+        <v>0.001052706202481479</v>
       </c>
       <c r="E3">
-        <v>0.0009721203578333545</v>
+        <v>0.001058475178677421</v>
       </c>
       <c r="F3">
-        <v>0.002231911124691263</v>
+        <v>0.002342840984360291</v>
       </c>
       <c r="G3">
-        <v>0.001048401829732267</v>
+        <v>0.001171272160374462</v>
       </c>
       <c r="H3">
-        <v>0.001499936335881937</v>
-      </c>
-      <c r="I3">
-        <v>0.001085259550586305</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>0.001813300435205243</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.0007956542681092049</v>
+        <v>0.0009263425047143715</v>
       </c>
       <c r="C4">
-        <v>0.0007609908260654276</v>
+        <v>0.0008829362178320722</v>
       </c>
       <c r="D4">
-        <v>0.000929800247043536</v>
+        <v>0.001056272648130564</v>
       </c>
       <c r="E4">
-        <v>0.001215389626762968</v>
+        <v>0.001364822649458621</v>
       </c>
       <c r="F4">
-        <v>0.00118550917872994</v>
+        <v>0.001312024207504568</v>
       </c>
       <c r="G4">
-        <v>0.001168500642268689</v>
+        <v>0.001277326877719982</v>
       </c>
       <c r="H4">
-        <v>0.000917498674611992</v>
-      </c>
-      <c r="I4">
-        <v>0.0007470690800714167</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>0.001045681255210235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0003288988304390878</v>
+        <v>0.0003487070563577275</v>
       </c>
       <c r="C5">
-        <v>0.000513930828955507</v>
+        <v>0.0005045360443417149</v>
       </c>
       <c r="D5">
-        <v>0.0007742444331727253</v>
+        <v>0.0009780675086642114</v>
       </c>
       <c r="E5">
-        <v>0.000853124289208233</v>
+        <v>0.001077713258347165</v>
       </c>
       <c r="F5">
-        <v>0.0003561112336441312</v>
+        <v>0.0003716246127050305</v>
       </c>
       <c r="G5">
-        <v>0.0002860575124665159</v>
+        <v>0.0003126272470431581</v>
       </c>
       <c r="H5">
-        <v>0.0005303656905199008</v>
-      </c>
-      <c r="I5">
-        <v>0.0003879403459229098</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>0.0005183770440918697</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0004889181558576852</v>
+        <v>0.0004673669555964089</v>
       </c>
       <c r="C6">
-        <v>0.0005343426043298512</v>
+        <v>0.0005296289502595399</v>
       </c>
       <c r="D6">
-        <v>0.00043186022594732</v>
+        <v>0.0004086680133580312</v>
       </c>
       <c r="E6">
-        <v>0.0003911373957519017</v>
+        <v>0.0004661818681997383</v>
       </c>
       <c r="F6">
-        <v>0.0006104767794494738</v>
+        <v>0.0007423056070185759</v>
       </c>
       <c r="G6">
-        <v>0.0004371727238254644</v>
+        <v>0.0005504771891555294</v>
       </c>
       <c r="H6">
-        <v>0.0004164823612876874</v>
-      </c>
-      <c r="I6">
-        <v>0.000475956130154165</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>0.0004160023828650685</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.0006360631964061793</v>
+        <v>0.0006755557549356734</v>
       </c>
       <c r="C7">
-        <v>0.0006784466731147041</v>
+        <v>0.0006694863061234196</v>
       </c>
       <c r="D7">
-        <v>0.001094873681633123</v>
+        <v>0.001302990631155676</v>
       </c>
       <c r="E7">
-        <v>0.0007616911407796164</v>
+        <v>0.0009460800219311105</v>
       </c>
       <c r="F7">
-        <v>0.0005427155339524274</v>
+        <v>0.0006107369241652042</v>
       </c>
       <c r="G7">
-        <v>0.0007614667275711233</v>
+        <v>0.0007580817052573939</v>
       </c>
       <c r="H7">
-        <v>0.000728321997076529</v>
-      </c>
-      <c r="I7">
-        <v>0.0007061773214540346</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>0.0007184595993631926</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.0001867249849828992</v>
+        <v>0.0001671742152553656</v>
       </c>
       <c r="C8">
-        <v>0.0002538681593099205</v>
+        <v>0.0001954975430152566</v>
       </c>
       <c r="D8">
-        <v>0.0002086719972965606</v>
+        <v>0.0001608386358051183</v>
       </c>
       <c r="E8">
-        <v>0.0002407884201480224</v>
+        <v>0.0002447093527900921</v>
       </c>
       <c r="F8">
-        <v>0.0001919304108278932</v>
+        <v>0.0002040350981565518</v>
       </c>
       <c r="G8">
-        <v>0.0003961254942810528</v>
+        <v>0.0003584266463034566</v>
       </c>
       <c r="H8">
-        <v>0.0002097139282473936</v>
-      </c>
-      <c r="I8">
-        <v>0.0005087288854991059</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>0.000158825525619416</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.0002335500198671996</v>
+        <v>0.0002146381248004782</v>
       </c>
       <c r="C9">
-        <v>0.0001749292838881675</v>
+        <v>0.0001616420439554863</v>
       </c>
       <c r="D9">
-        <v>0.0002135545648010806</v>
+        <v>0.0001968346284480076</v>
       </c>
       <c r="E9">
-        <v>0.0002495710341635466</v>
+        <v>0.0002347068487387479</v>
       </c>
       <c r="F9">
-        <v>0.0002478417238037435</v>
+        <v>0.0003130841371606184</v>
       </c>
       <c r="G9">
-        <v>0.0003921633340299485</v>
+        <v>0.0004765571045109001</v>
       </c>
       <c r="H9">
-        <v>0.0002160651480060717</v>
-      </c>
-      <c r="I9">
-        <v>0.0002796763840289369</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>0.0002317400090770504</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.0006099801501936253</v>
+        <v>0.0005989154441279162</v>
       </c>
       <c r="C10">
-        <v>0.0005983043043390756</v>
+        <v>0.0006214204682023348</v>
       </c>
       <c r="D10">
-        <v>0.0007212059054105191</v>
+        <v>0.0008967097212562076</v>
       </c>
       <c r="E10">
-        <v>0.0008239182967916847</v>
+        <v>0.001012362856115755</v>
       </c>
       <c r="F10">
-        <v>0.0005852179262088439</v>
+        <v>0.0006595280976821019</v>
       </c>
       <c r="G10">
-        <v>0.000784463738750577</v>
+        <v>0.0007866371891025723</v>
       </c>
       <c r="H10">
-        <v>0.0009830639146629668</v>
-      </c>
-      <c r="I10">
-        <v>0.0007029664909389165</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>0.0009868005563771121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.000951716655404809</v>
+        <v>0.0009454677216179698</v>
       </c>
       <c r="C11">
-        <v>0.0001791441970718158</v>
+        <v>0.0001972726949549399</v>
       </c>
       <c r="D11">
-        <v>0.0003426219707473537</v>
+        <v>0.0004328162111844359</v>
       </c>
       <c r="E11">
-        <v>0.0004106895106612526</v>
+        <v>0.0005188031967684563</v>
       </c>
       <c r="F11">
-        <v>0.0004391641813905126</v>
+        <v>0.0004393314204255251</v>
       </c>
       <c r="G11">
-        <v>0.0002075964484566725</v>
+        <v>0.000235782614009537</v>
       </c>
       <c r="H11">
-        <v>0.0001706676314155569</v>
-      </c>
-      <c r="I11">
-        <v>0.0003720306664993037</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>0.0001733824842286477</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.0007453280010514528</v>
+        <v>0.0007796367425218541</v>
       </c>
       <c r="C12">
-        <v>0.0007028645173020312</v>
+        <v>0.0008718247114136517</v>
       </c>
       <c r="D12">
-        <v>0.001046889487416861</v>
+        <v>0.001077299623924455</v>
       </c>
       <c r="E12">
-        <v>0.0009924846062585354</v>
+        <v>0.001016045009729718</v>
       </c>
       <c r="F12">
-        <v>0.000693513660783173</v>
+        <v>0.0008559216820722275</v>
       </c>
       <c r="G12">
-        <v>0.001175495124300046</v>
+        <v>0.001379851143610784</v>
       </c>
       <c r="H12">
-        <v>0.0006847710446136547</v>
-      </c>
-      <c r="I12">
-        <v>0.0007177335263381775</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>0.0007445315184928424</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.0003414646155211913</v>
+        <v>0.0004098121728062881</v>
       </c>
       <c r="C13">
-        <v>0.0002004835905594458</v>
+        <v>0.0002421023514522923</v>
       </c>
       <c r="D13">
-        <v>0.0004276826522324483</v>
+        <v>0.0004414235068486192</v>
       </c>
       <c r="E13">
-        <v>0.000326998661431058</v>
+        <v>0.00034157656465343</v>
       </c>
       <c r="F13">
-        <v>0.0002571017763870793</v>
+        <v>0.0002701255667820965</v>
       </c>
       <c r="G13">
-        <v>0.0002246737980126709</v>
+        <v>0.0002724326786152869</v>
       </c>
       <c r="H13">
-        <v>0.0001968499356282562</v>
-      </c>
-      <c r="I13">
-        <v>0.0002221033325854161</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>0.0002372175330280671</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.0006662899826108803</v>
+        <v>0.0007615015825976861</v>
       </c>
       <c r="C14">
-        <v>0.0004311262785564994</v>
+        <v>0.0004693203505425601</v>
       </c>
       <c r="D14">
-        <v>0.0003815495356077721</v>
+        <v>0.0004280839988885747</v>
       </c>
       <c r="E14">
-        <v>0.0005375922409660969</v>
+        <v>0.000574309520938249</v>
       </c>
       <c r="F14">
-        <v>0.0009129474353600844</v>
+        <v>0.0009675448032458397</v>
       </c>
       <c r="G14">
-        <v>0.0003651286460078517</v>
+        <v>0.0004234552952574099</v>
       </c>
       <c r="H14">
-        <v>0.0006909259781560637</v>
-      </c>
-      <c r="I14">
-        <v>0.0004946103093721425</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>0.0007857652586933764</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.0006256094106483804</v>
+        <v>0.0006890698504336034</v>
       </c>
       <c r="C15">
-        <v>0.0006047190934035255</v>
+        <v>0.0006706902871790514</v>
       </c>
       <c r="D15">
-        <v>0.0003252221115423914</v>
+        <v>0.0004084474715622578</v>
       </c>
       <c r="E15">
-        <v>0.0003563134945068027</v>
+        <v>0.000428244008049064</v>
       </c>
       <c r="F15">
-        <v>0.0004678653386547356</v>
+        <v>0.0005278130730990211</v>
       </c>
       <c r="G15">
-        <v>0.0003799836322651241</v>
+        <v>0.0004418267345949164</v>
       </c>
       <c r="H15">
-        <v>0.0004704872686142974</v>
-      </c>
-      <c r="I15">
-        <v>0.0003059592940415762</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>0.0005279890360307387</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.0005578359249909826</v>
+        <v>0.0006029215303968001</v>
       </c>
       <c r="C16">
-        <v>0.0004026343395067935</v>
+        <v>0.000508627423017687</v>
       </c>
       <c r="D16">
-        <v>0.00052689187541979</v>
+        <v>0.0005699639154355626</v>
       </c>
       <c r="E16">
-        <v>0.0003819194404920113</v>
+        <v>0.000430149849553919</v>
       </c>
       <c r="F16">
-        <v>0.0004238975839085223</v>
+        <v>0.0005125331493527642</v>
       </c>
       <c r="G16">
-        <v>0.00113705727157264</v>
+        <v>0.001285350995032712</v>
       </c>
       <c r="H16">
-        <v>0.0004329608681578003</v>
-      </c>
-      <c r="I16">
-        <v>0.0003812202756595859</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>0.0004890990211655414</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.0006990076861704367</v>
+        <v>0.0008341533055213648</v>
       </c>
       <c r="C17">
-        <v>0.0005721703226085381</v>
+        <v>0.0006871748093064341</v>
       </c>
       <c r="D17">
-        <v>0.00124508248011521</v>
+        <v>0.001318314541671617</v>
       </c>
       <c r="E17">
-        <v>0.0008474294635841422</v>
+        <v>0.0009110650336068846</v>
       </c>
       <c r="F17">
-        <v>0.000540385800920935</v>
+        <v>0.0006134435526835176</v>
       </c>
       <c r="G17">
-        <v>0.0006398314648406849</v>
+        <v>0.0007642646868660953</v>
       </c>
       <c r="H17">
-        <v>0.0006111752778504373</v>
-      </c>
-      <c r="I17">
-        <v>0.0005457200198153822</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>0.0006944106486158562</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.0003675625454446406</v>
+        <v>0.0003720378608859472</v>
       </c>
       <c r="C18">
-        <v>0.0003565627284160321</v>
+        <v>0.000355805199649887</v>
       </c>
       <c r="D18">
-        <v>0.000399678377025255</v>
+        <v>0.0004017331604285332</v>
       </c>
       <c r="E18">
-        <v>0.0003759023868363976</v>
+        <v>0.0004303788324458191</v>
       </c>
       <c r="F18">
-        <v>0.0006649717658916343</v>
+        <v>0.0006601211949997545</v>
       </c>
       <c r="G18">
-        <v>0.000557655586930451</v>
+        <v>0.0006731821587688419</v>
       </c>
       <c r="H18">
-        <v>0.0005164408562412734</v>
-      </c>
-      <c r="I18">
-        <v>0.0004328049708879182</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>0.0006514140712194021</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.0003867034849867863</v>
+        <v>0.0003623988030152012</v>
       </c>
       <c r="C19">
-        <v>0.0002939891703091326</v>
+        <v>0.0003496182794910775</v>
       </c>
       <c r="D19">
-        <v>0.0002391882608738074</v>
+        <v>0.0002417666042318659</v>
       </c>
       <c r="E19">
-        <v>0.0002919376049955393</v>
+        <v>0.0002839934935263207</v>
       </c>
       <c r="F19">
-        <v>0.0004839941616795774</v>
+        <v>0.0004636925568044248</v>
       </c>
       <c r="G19">
-        <v>0.0002658243787884846</v>
+        <v>0.000335800901963508</v>
       </c>
       <c r="H19">
-        <v>0.0002772229088544738</v>
-      </c>
-      <c r="I19">
-        <v>0.0003677333102061901</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>0.0003264527612296423</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.0006607615353457861</v>
+        <v>0.0007800701663065814</v>
       </c>
       <c r="C20">
-        <v>0.0005605835833082104</v>
+        <v>0.0007020886012100339</v>
       </c>
       <c r="D20">
-        <v>0.0009864794147220446</v>
+        <v>0.001080563535385348</v>
       </c>
       <c r="E20">
-        <v>0.001078502699196931</v>
+        <v>0.001176104818396646</v>
       </c>
       <c r="F20">
-        <v>0.0005952348337683357</v>
+        <v>0.0007046271276976486</v>
       </c>
       <c r="G20">
-        <v>0.001228679871618717</v>
+        <v>0.001376729366940904</v>
       </c>
       <c r="H20">
-        <v>0.0006894029320671818</v>
-      </c>
-      <c r="I20">
-        <v>0.0005485628107796222</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>0.0008133015023647838</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.0004009257566419613</v>
+        <v>0.0004597627681389983</v>
       </c>
       <c r="C21">
-        <v>0.0004345776939933325</v>
+        <v>0.0005489801780197585</v>
       </c>
       <c r="D21">
-        <v>0.0004861359352496991</v>
+        <v>0.0004789060735205804</v>
       </c>
       <c r="E21">
-        <v>0.0006984986518375413</v>
+        <v>0.0006945203799316244</v>
       </c>
       <c r="F21">
-        <v>0.0005570205843068983</v>
+        <v>0.0005582176985471706</v>
       </c>
       <c r="G21">
-        <v>0.0007250007640791636</v>
+        <v>0.0008429482267869206</v>
       </c>
       <c r="H21">
-        <v>0.0004301019306562468</v>
-      </c>
-      <c r="I21">
-        <v>0.0004985768439780129</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>0.0005016525595261026</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.0002216629854257024</v>
+        <v>0.0002768133997688993</v>
       </c>
       <c r="C22">
-        <v>0.0002980532719236789</v>
+        <v>0.0003051693867500052</v>
       </c>
       <c r="D22">
-        <v>0.0001976684211769513</v>
+        <v>0.0002110443455263277</v>
       </c>
       <c r="E22">
-        <v>0.0002449655963416643</v>
+        <v>0.0002982952495315688</v>
       </c>
       <c r="F22">
-        <v>0.0002170819554480845</v>
+        <v>0.0002702965729514243</v>
       </c>
       <c r="G22">
-        <v>0.0004629226893234211</v>
+        <v>0.0004855683491845256</v>
       </c>
       <c r="H22">
-        <v>0.0001996180498340539</v>
-      </c>
-      <c r="I22">
-        <v>0.0002005384436330032</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>0.0002263752610331349</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.0005199164170235855</v>
+        <v>0.0005785448255505843</v>
       </c>
       <c r="C23">
-        <v>0.0004020359886530869</v>
+        <v>0.0004679863816403927</v>
       </c>
       <c r="D23">
-        <v>0.0005105465583367027</v>
+        <v>0.0005671082606755567</v>
       </c>
       <c r="E23">
-        <v>0.0004587543013635796</v>
+        <v>0.000520706724508095</v>
       </c>
       <c r="F23">
-        <v>0.0003910484376052109</v>
+        <v>0.0004527827137299486</v>
       </c>
       <c r="G23">
-        <v>0.0007944523249211413</v>
+        <v>0.000882214051230239</v>
       </c>
       <c r="H23">
-        <v>0.0003902173256408876</v>
-      </c>
-      <c r="I23">
-        <v>0.0003458029289310755</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>0.0004735079287297269</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.0003874429383843603</v>
+        <v>0.0004852230608803697</v>
       </c>
       <c r="C24">
-        <v>0.0005137785609341815</v>
+        <v>0.0006113625890224937</v>
       </c>
       <c r="D24">
-        <v>0.0006187688576724876</v>
+        <v>0.0006455470139665937</v>
       </c>
       <c r="E24">
-        <v>0.000680116920958947</v>
+        <v>0.0007161977012692704</v>
       </c>
       <c r="F24">
-        <v>0.0003967803841742821</v>
+        <v>0.0004215784940749109</v>
       </c>
       <c r="G24">
-        <v>0.0004689502326040054</v>
+        <v>0.0005703188811774554</v>
       </c>
       <c r="H24">
-        <v>0.0003832678649606535</v>
-      </c>
-      <c r="I24">
-        <v>0.000362488071180196</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>0.0004489765903390841</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.0002645298190221378</v>
+        <v>0.0002767332804678383</v>
       </c>
       <c r="C25">
-        <v>0.0002359068584389142</v>
+        <v>0.0002592982805727579</v>
       </c>
       <c r="D25">
-        <v>0.0002912595954019184</v>
+        <v>0.0002918059225988308</v>
       </c>
       <c r="E25">
-        <v>0.0003187960105328081</v>
+        <v>0.0003197838937164545</v>
       </c>
       <c r="F25">
-        <v>0.0002901573280104614</v>
+        <v>0.0002879637465873998</v>
       </c>
       <c r="G25">
-        <v>0.0002796755360163754</v>
+        <v>0.0003161389895185288</v>
       </c>
       <c r="H25">
-        <v>0.000651691682556588</v>
-      </c>
-      <c r="I25">
-        <v>0.0003432558804874283</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>0.0007606019532590987</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.0005614233537952736</v>
+        <v>0.0006123800296559317</v>
       </c>
       <c r="C26">
-        <v>0.0006249550854582615</v>
+        <v>0.0006674237920648085</v>
       </c>
       <c r="D26">
-        <v>0.001171734088442072</v>
+        <v>0.001348393852094497</v>
       </c>
       <c r="E26">
-        <v>0.0007978195492200547</v>
+        <v>0.0009591214227950523</v>
       </c>
       <c r="F26">
-        <v>0.0006199773018545444</v>
+        <v>0.0007502453748612518</v>
       </c>
       <c r="G26">
-        <v>0.0007640849569418094</v>
+        <v>0.0007831092208474375</v>
       </c>
       <c r="H26">
-        <v>0.0008849426855290824</v>
-      </c>
-      <c r="I26">
-        <v>0.0006301749919698229</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>0.0009363606847206023</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.0003836923103007827</v>
+        <v>0.0004604102337127915</v>
       </c>
       <c r="C27">
-        <v>0.0003003995900537763</v>
+        <v>0.0003244529881966387</v>
       </c>
       <c r="D27">
-        <v>0.0003080113954108538</v>
+        <v>0.000303728850470984</v>
       </c>
       <c r="E27">
-        <v>0.000313826111685253</v>
+        <v>0.0003073604687409</v>
       </c>
       <c r="F27">
-        <v>0.0002554124447722193</v>
+        <v>0.000254395848037408</v>
       </c>
       <c r="G27">
-        <v>0.0008930394710314344</v>
+        <v>0.001031916403304876</v>
       </c>
       <c r="H27">
-        <v>0.0004634555546174169</v>
-      </c>
-      <c r="I27">
-        <v>0.0004214353533618101</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>0.0004713431960244939</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.0002994310637057969</v>
+        <v>0.0003284016640495507</v>
       </c>
       <c r="C28">
-        <v>0.0002714233365096484</v>
+        <v>0.0003138954618343243</v>
       </c>
       <c r="D28">
-        <v>0.0003281255323901492</v>
+        <v>0.0003150212444660945</v>
       </c>
       <c r="E28">
-        <v>0.0003536352928848973</v>
+        <v>0.0003435855396198994</v>
       </c>
       <c r="F28">
-        <v>0.0002215224278713308</v>
+        <v>0.0002619876813302227</v>
       </c>
       <c r="G28">
-        <v>0.0004425855622377072</v>
+        <v>0.0005458627041443089</v>
       </c>
       <c r="H28">
-        <v>0.0003997568873835573</v>
-      </c>
-      <c r="I28">
-        <v>0.0003391010364823959</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>0.0003891934962586172</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.0001552116071824979</v>
+        <v>0.0001784622901774509</v>
       </c>
       <c r="C29">
-        <v>0.0001205824722187925</v>
+        <v>0.000152322642837331</v>
       </c>
       <c r="D29">
-        <v>0.0001433297085075422</v>
+        <v>0.000161370205407865</v>
       </c>
       <c r="E29">
-        <v>0.000196171350643231</v>
+        <v>0.0002189703416350371</v>
       </c>
       <c r="F29">
-        <v>0.0001821950929447019</v>
+        <v>0.0002018256261234677</v>
       </c>
       <c r="G29">
-        <v>0.0002613564765213584</v>
+        <v>0.0002878127342505574</v>
       </c>
       <c r="H29">
-        <v>0.0001130630995964225</v>
-      </c>
-      <c r="I29">
-        <v>0.0001105715437891677</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>0.0001399864472385126</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.0007707760746294676</v>
+        <v>0.0008830078997008854</v>
       </c>
       <c r="C30">
-        <v>0.0006529714247707472</v>
+        <v>0.0008247103047541167</v>
       </c>
       <c r="D30">
-        <v>0.001394660289152128</v>
+        <v>0.001557269838147667</v>
       </c>
       <c r="E30">
-        <v>0.001764795715699427</v>
+        <v>0.001931496933195365</v>
       </c>
       <c r="F30">
-        <v>0.0005959743165451704</v>
+        <v>0.0006963054972732761</v>
       </c>
       <c r="G30">
-        <v>0.0007093061530308706</v>
+        <v>0.0008392056151397503</v>
       </c>
       <c r="H30">
-        <v>0.0008938551557239962</v>
-      </c>
-      <c r="I30">
-        <v>0.0006514989559828298</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>0.001012852073169393</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.0007747373018627962</v>
+        <v>0.0009221143847426214</v>
       </c>
       <c r="C31">
-        <v>0.0005091377120380686</v>
+        <v>0.0005987670586622692</v>
       </c>
       <c r="D31">
-        <v>0.001021110450992453</v>
+        <v>0.001096154058532373</v>
       </c>
       <c r="E31">
-        <v>0.001229165697437923</v>
+        <v>0.001305085144422216</v>
       </c>
       <c r="F31">
-        <v>0.0004706952752054001</v>
+        <v>0.0005509986064113836</v>
       </c>
       <c r="G31">
-        <v>0.0005309931805453253</v>
+        <v>0.0006578848853075308</v>
       </c>
       <c r="H31">
-        <v>0.0006333912036757019</v>
-      </c>
-      <c r="I31">
-        <v>0.0004990032303595176</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>0.0007687108922115368</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.0007612927712580741</v>
+        <v>0.0007381521042094787</v>
       </c>
       <c r="C32">
-        <v>0.0006003880778711365</v>
+        <v>0.00055401236958818</v>
       </c>
       <c r="D32">
-        <v>0.000643003549544778</v>
+        <v>0.0007293597562497039</v>
       </c>
       <c r="E32">
-        <v>0.0005127387426581114</v>
+        <v>0.0004756217518232445</v>
       </c>
       <c r="F32">
-        <v>0.000987556403789897</v>
+        <v>0.0009157402010409464</v>
       </c>
       <c r="G32">
-        <v>0.0004782824099200242</v>
+        <v>0.0005519074352828717</v>
       </c>
       <c r="H32">
-        <v>0.0007856922466599137</v>
-      </c>
-      <c r="I32">
-        <v>0.000844727041120246</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>0.0009925290710261912</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.0004680645840151832</v>
+        <v>0.0005122583425343835</v>
       </c>
       <c r="C33">
-        <v>0.0004849023235431617</v>
+        <v>0.0005692666368298844</v>
       </c>
       <c r="D33">
-        <v>0.0004600634447795322</v>
+        <v>0.0005060724399368647</v>
       </c>
       <c r="E33">
-        <v>0.0003498611726462715</v>
+        <v>0.0004003840208351195</v>
       </c>
       <c r="F33">
-        <v>0.0006861016929746517</v>
+        <v>0.0007463936174472754</v>
       </c>
       <c r="G33">
-        <v>0.0007494822364743752</v>
+        <v>0.0008613438839495182</v>
       </c>
       <c r="H33">
-        <v>0.000389070570475542</v>
-      </c>
-      <c r="I33">
-        <v>0.0003521010938117639</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>0.0004914928591179117</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.001237174351011346</v>
+        <v>0.001366930854391296</v>
       </c>
       <c r="C34">
-        <v>0.001337157701126467</v>
+        <v>0.001645806750120831</v>
       </c>
       <c r="D34">
-        <v>0.00242120927446173</v>
+        <v>0.00247516071447869</v>
       </c>
       <c r="E34">
-        <v>0.002350702571229078</v>
+        <v>0.002400290757530524</v>
       </c>
       <c r="F34">
-        <v>0.001331282811371404</v>
+        <v>0.001400507618247175</v>
       </c>
       <c r="G34">
-        <v>0.002143706408698793</v>
+        <v>0.002604999690453977</v>
       </c>
       <c r="H34">
-        <v>0.001261705096181347</v>
-      </c>
-      <c r="I34">
-        <v>0.001487772755064919</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>0.001490754359821507</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.001202823282257612</v>
+        <v>0.001141894295794992</v>
       </c>
       <c r="C35">
-        <v>0.001309008115338416</v>
+        <v>0.001653612960834278</v>
       </c>
       <c r="D35">
-        <v>0.00117560281634079</v>
+        <v>0.001097275751407954</v>
       </c>
       <c r="E35">
-        <v>0.00102156427459613</v>
+        <v>0.0009626937450931697</v>
       </c>
       <c r="F35">
-        <v>0.001144631777068125</v>
+        <v>0.001086785859123598</v>
       </c>
       <c r="G35">
-        <v>0.0009373797881111095</v>
+        <v>0.001114744504318145</v>
       </c>
       <c r="H35">
-        <v>0.0009952363723904399</v>
-      </c>
-      <c r="I35">
-        <v>0.001258321546787729</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>0.001189462183339242</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.0001356370415579224</v>
+        <v>0.0001281759429986488</v>
       </c>
       <c r="C36">
-        <v>0.0001444277132255424</v>
+        <v>0.0001458244459875711</v>
       </c>
       <c r="D36">
-        <v>0.0002779278299082786</v>
+        <v>0.000234284559919197</v>
       </c>
       <c r="E36">
-        <v>0.0002353794173871822</v>
+        <v>0.0001931421308323292</v>
       </c>
       <c r="F36">
-        <v>0.0002034917982017234</v>
+        <v>0.0002218440635411705</v>
       </c>
       <c r="G36">
-        <v>0.0001881311203156854</v>
+        <v>0.0001567730682871792</v>
       </c>
       <c r="H36">
-        <v>0.0003051758796947038</v>
-      </c>
-      <c r="I36">
-        <v>0.0003300357599541432</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>0.0003855120703914081</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.000311425311368523</v>
+        <v>0.0003575163360587573</v>
       </c>
       <c r="C37">
-        <v>0.0003554725318220276</v>
+        <v>0.0003831950645655721</v>
       </c>
       <c r="D37">
-        <v>0.0006093071952791213</v>
+        <v>0.0006393191822839063</v>
       </c>
       <c r="E37">
-        <v>0.0004381635746870968</v>
+        <v>0.0004574502949604029</v>
       </c>
       <c r="F37">
-        <v>0.0002643261787083612</v>
+        <v>0.0003339082860579749</v>
       </c>
       <c r="G37">
-        <v>0.0006963277193748483</v>
+        <v>0.0008089805181002466</v>
       </c>
       <c r="H37">
-        <v>0.0003044228344107162</v>
-      </c>
-      <c r="I37">
-        <v>0.0003358487957944965</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>0.0003591838619859282</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.001007542066096282</v>
+        <v>0.001097954999077543</v>
       </c>
       <c r="C38">
-        <v>0.001003612031902663</v>
+        <v>0.001267818371268918</v>
       </c>
       <c r="D38">
-        <v>0.001435163705152578</v>
+        <v>0.0014477593320363</v>
       </c>
       <c r="E38">
-        <v>0.001669799431084444</v>
+        <v>0.001698052429127237</v>
       </c>
       <c r="F38">
-        <v>0.001104300308405057</v>
+        <v>0.001111462461676885</v>
       </c>
       <c r="G38">
-        <v>0.001316315715560694</v>
+        <v>0.001626716970059624</v>
       </c>
       <c r="H38">
-        <v>0.001043170258530972</v>
-      </c>
-      <c r="I38">
-        <v>0.001060315736242343</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>0.001249432596309022</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.0006103130856977111</v>
+        <v>0.0006859050255813245</v>
       </c>
       <c r="C39">
-        <v>0.0005321007811472494</v>
+        <v>0.0006597797497447336</v>
       </c>
       <c r="D39">
-        <v>0.0008693592687651047</v>
+        <v>0.0009377624611448565</v>
       </c>
       <c r="E39">
-        <v>0.0009725737127275496</v>
+        <v>0.001037315537592265</v>
       </c>
       <c r="F39">
-        <v>0.0005575292260138671</v>
+        <v>0.000681448380850645</v>
       </c>
       <c r="G39">
-        <v>0.001074539690486327</v>
+        <v>0.001224128255403257</v>
       </c>
       <c r="H39">
-        <v>0.0005157876109842637</v>
-      </c>
-      <c r="I39">
-        <v>0.000491837978503756</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>0.0006356519112109626</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.00046955209967866</v>
+        <v>0.0005788763508863074</v>
       </c>
       <c r="C40">
-        <v>0.0004530401589027718</v>
+        <v>0.0005575199920999016</v>
       </c>
       <c r="D40">
-        <v>0.0009538925442673648</v>
+        <v>0.001035959140717788</v>
       </c>
       <c r="E40">
-        <v>0.0008510816343498173</v>
+        <v>0.0009274199962763034</v>
       </c>
       <c r="F40">
-        <v>0.0004263890419771339</v>
+        <v>0.0005053438758911061</v>
       </c>
       <c r="G40">
-        <v>0.0009396712385082395</v>
+        <v>0.001065233780001678</v>
       </c>
       <c r="H40">
-        <v>0.0005676596847797923</v>
-      </c>
-      <c r="I40">
-        <v>0.0004229146026728457</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>0.0006838158415658449</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.0006740813886938967</v>
+        <v>0.0007782083971542794</v>
       </c>
       <c r="C41">
-        <v>0.0006265453598793556</v>
+        <v>0.0007035902646485697</v>
       </c>
       <c r="D41">
-        <v>0.001362174200160373</v>
+        <v>0.001399401483227909</v>
       </c>
       <c r="E41">
-        <v>0.001201134503971433</v>
+        <v>0.001237214131017855</v>
       </c>
       <c r="F41">
-        <v>0.0005153390415382692</v>
+        <v>0.0005849094753079747</v>
       </c>
       <c r="G41">
-        <v>0.001493319693918515</v>
+        <v>0.001777419788905469</v>
       </c>
       <c r="H41">
-        <v>0.0007441311748184017</v>
-      </c>
-      <c r="I41">
-        <v>0.0008447678529962637</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>0.0008107425860121939</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.0003620598554917857</v>
+        <v>0.0004460399575377824</v>
       </c>
       <c r="C42">
-        <v>0.0002984207426328407</v>
+        <v>0.0003502362101568255</v>
       </c>
       <c r="D42">
-        <v>0.0005599602561453046</v>
+        <v>0.0005748425261520492</v>
       </c>
       <c r="E42">
-        <v>0.0005116981506007011</v>
+        <v>0.0005253303334240755</v>
       </c>
       <c r="F42">
-        <v>0.0002721930884907961</v>
+        <v>0.0002935348242167303</v>
       </c>
       <c r="G42">
-        <v>0.0005344687326102241</v>
+        <v>0.0006423351745195512</v>
       </c>
       <c r="H42">
-        <v>0.0003382590864934397</v>
-      </c>
-      <c r="I42">
-        <v>0.0003508876043415231</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>0.0003588971960774352</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.0002758799402987197</v>
+        <v>0.000331308798721571</v>
       </c>
       <c r="C43">
-        <v>0.0002553221101836731</v>
+        <v>0.0002980404002680816</v>
       </c>
       <c r="D43">
-        <v>0.0005686069080504712</v>
+        <v>0.0005942945126306853</v>
       </c>
       <c r="E43">
-        <v>0.000648033513772429</v>
+        <v>0.0006728246441313788</v>
       </c>
       <c r="F43">
-        <v>0.0002695905222598821</v>
+        <v>0.0003012050508470823</v>
       </c>
       <c r="G43">
-        <v>0.0003560820356052774</v>
+        <v>0.0004498197697728952</v>
       </c>
       <c r="H43">
-        <v>0.0002734573266823932</v>
-      </c>
-      <c r="I43">
-        <v>0.0002883371211078773</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>0.0003320802003031758</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.0003090884272259507</v>
+        <v>0.0003590498601215835</v>
       </c>
       <c r="C44">
-        <v>0.000301034616506121</v>
+        <v>0.000308082145617737</v>
       </c>
       <c r="D44">
-        <v>0.000709860876217798</v>
+        <v>0.000713560936606675</v>
       </c>
       <c r="E44">
-        <v>0.000303506960546446</v>
+        <v>0.0003565218512703514</v>
       </c>
       <c r="F44">
-        <v>0.0003585049166800562</v>
+        <v>0.000356890487371174</v>
       </c>
       <c r="G44">
-        <v>0.0002586335170822531</v>
+        <v>0.0002828312011095766</v>
       </c>
       <c r="H44">
-        <v>0.000536082998371943</v>
-      </c>
-      <c r="I44">
-        <v>0.0004864602142240793</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>0.000516251227460203</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.0002329619241783285</v>
+        <v>0.0002408072506096752</v>
       </c>
       <c r="C45">
-        <v>0.0002875559416504935</v>
+        <v>0.0002873531547426122</v>
       </c>
       <c r="D45">
-        <v>0.0002012802799614656</v>
+        <v>0.0002122444310496211</v>
       </c>
       <c r="E45">
-        <v>0.000360343192204978</v>
+        <v>0.0003690384435123768</v>
       </c>
       <c r="F45">
-        <v>0.0002950665754990973</v>
+        <v>0.0003463537499360932</v>
       </c>
       <c r="G45">
-        <v>0.0004504067945192009</v>
+        <v>0.0005282803440248479</v>
       </c>
       <c r="H45">
-        <v>0.0002071903138578352</v>
-      </c>
-      <c r="I45">
-        <v>0.0002960380316706307</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>0.0002124413785099605</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.0003588235886250474</v>
+        <v>0.0004022560340332751</v>
       </c>
       <c r="C46">
-        <v>0.0001687107008660583</v>
+        <v>0.0002108283816513309</v>
       </c>
       <c r="D46">
-        <v>0.0001963322131059563</v>
+        <v>0.0002335279861542128</v>
       </c>
       <c r="E46">
-        <v>0.0002041991217076265</v>
+        <v>0.0002350740306651345</v>
       </c>
       <c r="F46">
-        <v>0.0002073223636985995</v>
+        <v>0.0002324383494057833</v>
       </c>
       <c r="G46">
-        <v>0.0004168822306308334</v>
+        <v>0.0004556043251387495</v>
       </c>
       <c r="H46">
-        <v>0.0002622800099642448</v>
-      </c>
-      <c r="I46">
-        <v>0.0001783055775430806</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>0.0002972772976112825</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.0006278111926864222</v>
+        <v>0.0006117614634357947</v>
       </c>
       <c r="C47">
-        <v>0.0005267148225750234</v>
+        <v>0.0006602325576614583</v>
       </c>
       <c r="D47">
-        <v>0.0004464570179017304</v>
+        <v>0.0004292161182679478</v>
       </c>
       <c r="E47">
-        <v>0.0003833838120083087</v>
+        <v>0.0003773625036652767</v>
       </c>
       <c r="F47">
-        <v>0.0004072657339121989</v>
+        <v>0.0003857151937815075</v>
       </c>
       <c r="G47">
-        <v>0.0007995055975926599</v>
+        <v>0.000960262044949734</v>
       </c>
       <c r="H47">
-        <v>0.0003927616100753076</v>
-      </c>
-      <c r="I47">
-        <v>0.000580885941433106</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>0.0003690410763057212</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.0005863417287581233</v>
+        <v>0.0007030317802900069</v>
       </c>
       <c r="C48">
-        <v>0.0005908999163564108</v>
+        <v>0.0007303430928097173</v>
       </c>
       <c r="D48">
-        <v>0.0009436921021767591</v>
+        <v>0.000971701599143163</v>
       </c>
       <c r="E48">
-        <v>0.0008676735439443775</v>
+        <v>0.000890471210895085</v>
       </c>
       <c r="F48">
-        <v>0.0005494508559438909</v>
+        <v>0.0005736563207480688</v>
       </c>
       <c r="G48">
-        <v>0.001119571628874293</v>
+        <v>0.001321170419681704</v>
       </c>
       <c r="H48">
-        <v>0.0005869538535185455</v>
-      </c>
-      <c r="I48">
-        <v>0.0006253875284133305</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>0.0006448745775242797</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.0005029568165759295</v>
+        <v>0.0005003129457924847</v>
       </c>
       <c r="C49">
-        <v>0.0004008029772409537</v>
+        <v>0.0002885921697163867</v>
       </c>
       <c r="D49">
-        <v>0.0006010560619174963</v>
+        <v>0.0004974612734482401</v>
       </c>
       <c r="E49">
-        <v>0.0005899101921276393</v>
+        <v>0.0004673972108784859</v>
       </c>
       <c r="F49">
-        <v>0.0006811911373116398</v>
+        <v>0.0005742326598390582</v>
       </c>
       <c r="G49">
-        <v>0.0004989359946850621</v>
+        <v>0.0005716088209297633</v>
       </c>
       <c r="H49">
-        <v>0.000494017862322286</v>
-      </c>
-      <c r="I49">
-        <v>0.001152163393052346</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>0.0004059807965563939</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.0008445342068830102</v>
+        <v>0.001019699731283318</v>
       </c>
       <c r="C50">
-        <v>0.0007131581351716625</v>
+        <v>0.0008205577067401292</v>
       </c>
       <c r="D50">
-        <v>0.0009758359859973279</v>
+        <v>0.0009950466040660195</v>
       </c>
       <c r="E50">
-        <v>0.0009431654068124224</v>
+        <v>0.000962942707764752</v>
       </c>
       <c r="F50">
-        <v>0.001282364482893477</v>
+        <v>0.00132857496352953</v>
       </c>
       <c r="G50">
-        <v>0.0008283234723049554</v>
+        <v>0.001024741589773663</v>
       </c>
       <c r="H50">
-        <v>0.0009758746028413133</v>
-      </c>
-      <c r="I50">
-        <v>0.0007733871740243346</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>0.00116254983825302</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.0004553393739780214</v>
+        <v>0.0005568482560830257</v>
       </c>
       <c r="C51">
-        <v>0.0005072976395852115</v>
+        <v>0.0006081447135028582</v>
       </c>
       <c r="D51">
-        <v>0.0007603443621937658</v>
+        <v>0.000795554837945465</v>
       </c>
       <c r="E51">
-        <v>0.0008094583581424724</v>
+        <v>0.0008382768687046352</v>
       </c>
       <c r="F51">
-        <v>0.0003139891860221855</v>
+        <v>0.0003553232857942805</v>
       </c>
       <c r="G51">
-        <v>0.0004353942443755897</v>
+        <v>0.0005370743178539993</v>
       </c>
       <c r="H51">
-        <v>0.0003852875282559392</v>
-      </c>
-      <c r="I51">
-        <v>0.0003869760953884086</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>0.0004524441785490877</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.0004104968550124303</v>
+        <v>0.0005080976048419608</v>
       </c>
       <c r="C52">
-        <v>0.0005034755365890937</v>
+        <v>0.0005319898284068537</v>
       </c>
       <c r="D52">
-        <v>0.0004145675561385025</v>
+        <v>0.0004547854397944375</v>
       </c>
       <c r="E52">
-        <v>0.0003695559075538279</v>
+        <v>0.0004585313972930112</v>
       </c>
       <c r="F52">
-        <v>0.000329163736387925</v>
+        <v>0.0003766249458195083</v>
       </c>
       <c r="G52">
-        <v>0.0008927796461198445</v>
+        <v>0.0009439052387462276</v>
       </c>
       <c r="H52">
-        <v>0.0008519207895904003</v>
-      </c>
-      <c r="I52">
-        <v>0.0003964086446531729</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>0.0009902681912062675</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.001084783349573517</v>
+        <v>0.001160513008269594</v>
       </c>
       <c r="C53">
-        <v>0.0002966342395867436</v>
+        <v>0.0003281881983532013</v>
       </c>
       <c r="D53">
-        <v>0.0002776757907237856</v>
+        <v>0.0003174808083617752</v>
       </c>
       <c r="E53">
-        <v>0.0003867692695495685</v>
+        <v>0.0004678557565794684</v>
       </c>
       <c r="F53">
-        <v>0.0002124627275075665</v>
+        <v>0.0002402531964773524</v>
       </c>
       <c r="G53">
-        <v>0.0005519125702560209</v>
+        <v>0.0006480704837015568</v>
       </c>
       <c r="H53">
-        <v>0.0003051986963857415</v>
-      </c>
-      <c r="I53">
-        <v>0.0003402322523623734</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>0.000343446985166764</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.0002994828357149017</v>
+        <v>0.0002893221979904821</v>
       </c>
       <c r="C54">
-        <v>0.0002513363255646581</v>
+        <v>0.0002437144841768775</v>
       </c>
       <c r="D54">
-        <v>0.0002402562855332318</v>
+        <v>0.0003014388005970436</v>
       </c>
       <c r="E54">
-        <v>0.0002703980992456287</v>
+        <v>0.0002580507524259458</v>
       </c>
       <c r="F54">
-        <v>0.0002787627735011863</v>
+        <v>0.0003521454556384128</v>
       </c>
       <c r="G54">
-        <v>0.0003456703523406206</v>
+        <v>0.0003426156869011807</v>
       </c>
       <c r="H54">
-        <v>0.0002875662491625012</v>
-      </c>
-      <c r="I54">
-        <v>0.0002710918294391798</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>0.000363266532376845</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.000572416709197983</v>
+        <v>0.0006383597653325032</v>
       </c>
       <c r="C55">
-        <v>0.000656014348746915</v>
+        <v>0.0006847918911617048</v>
       </c>
       <c r="D55">
-        <v>0.0009863171365317178</v>
+        <v>0.001170303534051343</v>
       </c>
       <c r="E55">
-        <v>0.001101579068722182</v>
+        <v>0.001283108033521764</v>
       </c>
       <c r="F55">
-        <v>0.0006801188229103158</v>
+        <v>0.000717201234304866</v>
       </c>
       <c r="G55">
-        <v>0.001049918403587842</v>
+        <v>0.001122000022698164</v>
       </c>
       <c r="H55">
-        <v>0.0005727138342685543</v>
-      </c>
-      <c r="I55">
-        <v>0.0007055533155614922</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>0.0005912983910128367</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.0001032785053602488</v>
+        <v>0.0001250809127459523</v>
       </c>
       <c r="C56">
-        <v>0.0002013593590846964</v>
+        <v>0.0002258648544486021</v>
       </c>
       <c r="D56">
-        <v>8.071687468074881E-05</v>
+        <v>0.0001003451606404583</v>
       </c>
       <c r="E56">
-        <v>8.319142755827936E-05</v>
+        <v>0.0001010253765031615</v>
       </c>
       <c r="F56">
-        <v>0.0001464754383081729</v>
+        <v>0.0001603529765031768</v>
       </c>
       <c r="G56">
-        <v>0.00010226362997036</v>
+        <v>0.0001219203409974635</v>
       </c>
       <c r="H56">
-        <v>0.0002997839113635638</v>
-      </c>
-      <c r="I56">
-        <v>9.243608298444501E-05</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>0.0003334664841682193</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.0004332553544685901</v>
+        <v>0.0005158080891700675</v>
       </c>
       <c r="C57">
-        <v>0.0004381394221175354</v>
+        <v>0.0004692600840438521</v>
       </c>
       <c r="D57">
-        <v>0.0003200715353799528</v>
+        <v>0.0003860801731778062</v>
       </c>
       <c r="E57">
-        <v>0.000362856965658168</v>
+        <v>0.0004418331932946027</v>
       </c>
       <c r="F57">
-        <v>0.0005579415239397627</v>
+        <v>0.0005890028788186895</v>
       </c>
       <c r="G57">
-        <v>0.0006785405024324998</v>
+        <v>0.0007184191791570123</v>
       </c>
       <c r="H57">
-        <v>0.0005210564703418908</v>
-      </c>
-      <c r="I57">
-        <v>0.0003558677545322969</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>0.0006137891059126546</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.0007226794029418067</v>
+        <v>0.0008850464647920977</v>
       </c>
       <c r="C58">
-        <v>0.0006382433934025522</v>
+        <v>0.0006881084916950708</v>
       </c>
       <c r="D58">
-        <v>0.0005751426994723961</v>
+        <v>0.0006571746200086119</v>
       </c>
       <c r="E58">
-        <v>0.000613697650989931</v>
+        <v>0.0006662725104036691</v>
       </c>
       <c r="F58">
-        <v>0.001025949231093177</v>
+        <v>0.001070617780206275</v>
       </c>
       <c r="G58">
-        <v>0.0004917441202291469</v>
+        <v>0.0005547395146662204</v>
       </c>
       <c r="H58">
-        <v>0.001372688491120114</v>
-      </c>
-      <c r="I58">
-        <v>0.0006072527761415148</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>0.001583243322960956</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.001118676723648369</v>
+        <v>0.001312689520125726</v>
       </c>
       <c r="C59">
-        <v>0.001000869018790763</v>
+        <v>0.001246436329820832</v>
       </c>
       <c r="D59">
-        <v>0.001473813338278896</v>
+        <v>0.001593276265523564</v>
       </c>
       <c r="E59">
-        <v>0.001624575534034966</v>
+        <v>0.001758813855150131</v>
       </c>
       <c r="F59">
-        <v>0.001554828562791846</v>
+        <v>0.001685835224289532</v>
       </c>
       <c r="G59">
-        <v>0.001404268340782</v>
+        <v>0.001610615286742828</v>
       </c>
       <c r="H59">
-        <v>0.001316845084544807</v>
-      </c>
-      <c r="I59">
-        <v>0.001010587729263686</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>0.001508935510015679</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.0003985019361483834</v>
+        <v>0.000503407124054974</v>
       </c>
       <c r="C60">
-        <v>0.0004692979957465764</v>
+        <v>0.0005928409388185986</v>
       </c>
       <c r="D60">
-        <v>0.0003908568877056746</v>
+        <v>0.0004937494418313488</v>
       </c>
       <c r="E60">
-        <v>0.000393736615007962</v>
+        <v>0.0004973872855133875</v>
       </c>
       <c r="F60">
-        <v>0.002916984035784903</v>
+        <v>0.003195460400675966</v>
       </c>
       <c r="G60">
-        <v>0.0003634498707519117</v>
+        <v>0.0004591272595887525</v>
       </c>
       <c r="H60">
-        <v>0.0005138331542553794</v>
-      </c>
-      <c r="I60">
-        <v>0.0003874726593328401</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>0.0006491004134157783</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.0004633017169222375</v>
+        <v>0.0005398749521267843</v>
       </c>
       <c r="C61">
-        <v>0.0005862540673838279</v>
+        <v>0.000717055555148523</v>
       </c>
       <c r="D61">
-        <v>0.0006247937235492375</v>
+        <v>0.0006667188693286573</v>
       </c>
       <c r="E61">
-        <v>0.0006357097806427931</v>
+        <v>0.0006838852009680668</v>
       </c>
       <c r="F61">
-        <v>0.0005873151607271056</v>
+        <v>0.0006363342541123552</v>
       </c>
       <c r="G61">
-        <v>0.0007273197459368568</v>
+        <v>0.0008305256822613341</v>
       </c>
       <c r="H61">
-        <v>0.0009903271356819191</v>
-      </c>
-      <c r="I61">
-        <v>0.0005162781613280912</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>0.001103387230551278</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.0007355709566479819</v>
+        <v>0.000886129353589364</v>
       </c>
       <c r="C62">
-        <v>0.0008232298093441785</v>
+        <v>0.0009576246820278606</v>
       </c>
       <c r="D62">
-        <v>0.001055008743032168</v>
+        <v>0.001158007692525052</v>
       </c>
       <c r="E62">
-        <v>0.001253762641597076</v>
+        <v>0.00137206986570209</v>
       </c>
       <c r="F62">
-        <v>0.0007634628557304392</v>
+        <v>0.00088603845531511</v>
       </c>
       <c r="G62">
-        <v>0.001257693376912507</v>
+        <v>0.001402506844060539</v>
       </c>
       <c r="H62">
-        <v>0.0006715975472870024</v>
-      </c>
-      <c r="I62">
-        <v>0.0006184900824466017</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>0.0008437097053131925</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.0002042866345106675</v>
+        <v>0.000202911562166299</v>
       </c>
       <c r="C63">
-        <v>0.0001408964066965979</v>
+        <v>0.000150707813616619</v>
       </c>
       <c r="D63">
-        <v>0.0001644001293338193</v>
+        <v>0.0001766829702923246</v>
       </c>
       <c r="E63">
-        <v>0.000236523161843176</v>
+        <v>0.0002291807635840836</v>
       </c>
       <c r="F63">
-        <v>0.000165542241455368</v>
+        <v>0.0002011309119745673</v>
       </c>
       <c r="G63">
-        <v>0.0005215914873683579</v>
+        <v>0.0005232299861068694</v>
       </c>
       <c r="H63">
-        <v>0.0002092811353389713</v>
-      </c>
-      <c r="I63">
-        <v>0.0002680759735173138</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>0.0002524417087316404</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.0002929665383499525</v>
+        <v>0.0003567499049850031</v>
       </c>
       <c r="C64">
-        <v>0.0002981247579990732</v>
+        <v>0.0003104017745887354</v>
       </c>
       <c r="D64">
-        <v>0.0002430489832453019</v>
+        <v>0.0002629983995098998</v>
       </c>
       <c r="E64">
-        <v>0.0002337856404641042</v>
+        <v>0.0002894623524872896</v>
       </c>
       <c r="F64">
-        <v>0.0002739286125253284</v>
+        <v>0.0002907777815312504</v>
       </c>
       <c r="G64">
-        <v>0.0005438121022331746</v>
+        <v>0.0005784110657772838</v>
       </c>
       <c r="H64">
-        <v>0.0003142177682547402</v>
-      </c>
-      <c r="I64">
-        <v>0.0002446166930456624</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>0.0003812141254795096</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.0007977878243311234</v>
+        <v>0.000884172792023366</v>
       </c>
       <c r="C65">
-        <v>0.001259891674710909</v>
+        <v>0.001520409369510345</v>
       </c>
       <c r="D65">
-        <v>0.001139627728260569</v>
+        <v>0.001149096975000093</v>
       </c>
       <c r="E65">
-        <v>0.001117674741298397</v>
+        <v>0.00111908212031001</v>
       </c>
       <c r="F65">
-        <v>0.001049501652052736</v>
+        <v>0.001065088340785589</v>
       </c>
       <c r="G65">
-        <v>0.001362639263233385</v>
+        <v>0.001632440647051292</v>
       </c>
       <c r="H65">
-        <v>0.0008291168626816469</v>
-      </c>
-      <c r="I65">
-        <v>0.0009716324765665591</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>0.0009477836396928678</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.001689301878033688</v>
+        <v>0.001909797193713294</v>
       </c>
       <c r="C66">
-        <v>0.001133445858429461</v>
+        <v>0.001401680755312591</v>
       </c>
       <c r="D66">
-        <v>0.001566822683821774</v>
+        <v>0.001734735632133653</v>
       </c>
       <c r="E66">
-        <v>0.001708565970512334</v>
+        <v>0.001877969272791265</v>
       </c>
       <c r="F66">
-        <v>0.001657591806441316</v>
+        <v>0.001870007248096138</v>
       </c>
       <c r="G66">
-        <v>0.001444975273475685</v>
+        <v>0.001689678237793147</v>
       </c>
       <c r="H66">
-        <v>0.001986831414085199</v>
-      </c>
-      <c r="I66">
-        <v>0.001136607567685087</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>0.002213068249101012</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.0001951514804857671</v>
+        <v>0.0002144932845295137</v>
       </c>
       <c r="C67">
-        <v>0.0002529632750036702</v>
+        <v>0.000296979850081105</v>
       </c>
       <c r="D67">
-        <v>0.0003765786083442987</v>
+        <v>0.0003975213542417353</v>
       </c>
       <c r="E67">
-        <v>0.0002024840844135856</v>
+        <v>0.0002190853788693055</v>
       </c>
       <c r="F67">
-        <v>0.000146279309138521</v>
+        <v>0.0001764937700011863</v>
       </c>
       <c r="G67">
-        <v>0.0002523939581801021</v>
+        <v>0.0002713677153409383</v>
       </c>
       <c r="H67">
-        <v>0.0003892868758618893</v>
-      </c>
-      <c r="I67">
-        <v>0.0002026758404048233</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>0.0004610210705029667</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.001176102931777759</v>
+        <v>0.001384102682406683</v>
       </c>
       <c r="C68">
-        <v>0.0007258088310851722</v>
+        <v>0.0008873251621640553</v>
       </c>
       <c r="D68">
-        <v>0.0007235441172271079</v>
+        <v>0.0008082401691780067</v>
       </c>
       <c r="E68">
-        <v>0.0007631751364645257</v>
+        <v>0.000841896012677096</v>
       </c>
       <c r="F68">
-        <v>0.001888179603778474</v>
+        <v>0.002031717950571365</v>
       </c>
       <c r="G68">
-        <v>0.0006557213749793938</v>
+        <v>0.0007488709853167529</v>
       </c>
       <c r="H68">
-        <v>0.001232948179037686</v>
-      </c>
-      <c r="I68">
-        <v>0.0007287461972230742</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>0.001429118538444709</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.0006573622268546579</v>
+        <v>0.0007971794145594432</v>
       </c>
       <c r="C69">
-        <v>0.0008991688095351587</v>
+        <v>0.001033428352777247</v>
       </c>
       <c r="D69">
-        <v>0.001051968728926135</v>
+        <v>0.001147860005789443</v>
       </c>
       <c r="E69">
-        <v>0.0009961755937400569</v>
+        <v>0.001089252610416662</v>
       </c>
       <c r="F69">
-        <v>0.0007739294170128572</v>
+        <v>0.0008807666732309784</v>
       </c>
       <c r="G69">
-        <v>0.001216303374117736</v>
+        <v>0.001365640926030136</v>
       </c>
       <c r="H69">
-        <v>0.0008715872000120145</v>
-      </c>
-      <c r="I69">
-        <v>0.0006839749708391149</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>0.00099070179152737</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.0005776648451576047</v>
+        <v>0.000729736421303769</v>
       </c>
       <c r="C70">
-        <v>0.0005231516268560503</v>
+        <v>0.000600727778974812</v>
       </c>
       <c r="D70">
-        <v>0.000783206061049645</v>
+        <v>0.0008346636094499961</v>
       </c>
       <c r="E70">
-        <v>0.0009588090510975607</v>
+        <v>0.001026073218552311</v>
       </c>
       <c r="F70">
-        <v>0.000849057742075618</v>
+        <v>0.0009114284490804714</v>
       </c>
       <c r="G70">
-        <v>0.0007725957219842046</v>
+        <v>0.0009034520254540112</v>
       </c>
       <c r="H70">
-        <v>0.0007010682954345894</v>
-      </c>
-      <c r="I70">
-        <v>0.00054115851335656</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>0.0008357348437125426</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.0003450528975957751</v>
+        <v>0.0004300598192967047</v>
       </c>
       <c r="C71">
-        <v>0.0003645703229879181</v>
+        <v>0.0003982616374379879</v>
       </c>
       <c r="D71">
-        <v>0.0002914583244575084</v>
+        <v>0.0003230645043830896</v>
       </c>
       <c r="E71">
-        <v>0.0002702147800710502</v>
+        <v>0.0003278398902098678</v>
       </c>
       <c r="F71">
-        <v>0.0002935758151528341</v>
+        <v>0.0003199637033193008</v>
       </c>
       <c r="G71">
-        <v>0.0004109844327472623</v>
+        <v>0.0004431689206138493</v>
       </c>
       <c r="H71">
-        <v>0.0006536542576434565</v>
-      </c>
-      <c r="I71">
-        <v>0.0002674085964894395</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>0.0007415946210815879</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.0002416666107968005</v>
+        <v>0.0002912007356517197</v>
       </c>
       <c r="C72">
-        <v>0.000173949444632953</v>
+        <v>0.0001546240380223148</v>
       </c>
       <c r="D72">
-        <v>0.000145305025745083</v>
+        <v>0.0001076044417437664</v>
       </c>
       <c r="E72">
-        <v>0.0001359973693712924</v>
+        <v>0.0001044515505737066</v>
       </c>
       <c r="F72">
-        <v>0.0002352299061773853</v>
+        <v>0.000214605693569747</v>
       </c>
       <c r="G72">
-        <v>0.0001482036690768672</v>
+        <v>0.0001077582117616452</v>
       </c>
       <c r="H72">
-        <v>0.0001254904984179824</v>
-      </c>
-      <c r="I72">
-        <v>0.0003561625150748701</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>9.3126255831402E-05</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.0002224658755440915</v>
+        <v>0.0002460668265971529</v>
       </c>
       <c r="C73">
-        <v>0.0002088153712041597</v>
+        <v>0.0002596966451364479</v>
       </c>
       <c r="D73">
-        <v>0.0002708358374205627</v>
+        <v>0.0002806575790007364</v>
       </c>
       <c r="E73">
-        <v>0.0002145338926315509</v>
+        <v>0.0002257860992181858</v>
       </c>
       <c r="F73">
-        <v>0.0002264629445788513</v>
+        <v>0.0002650940890804455</v>
       </c>
       <c r="G73">
-        <v>0.0002754453343471722</v>
+        <v>0.0002933292438929607</v>
       </c>
       <c r="H73">
-        <v>0.000498041161704569</v>
-      </c>
-      <c r="I73">
-        <v>0.0002248385004212811</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>0.000566508650980745</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.0003168128591994253</v>
+        <v>0.0003756844065171471</v>
       </c>
       <c r="C74">
-        <v>0.0003618068440475217</v>
+        <v>0.0003989563436730778</v>
       </c>
       <c r="D74">
-        <v>0.0003567612220701264</v>
+        <v>0.0004432172109477585</v>
       </c>
       <c r="E74">
-        <v>0.0002943965872667816</v>
+        <v>0.0003479710780067887</v>
       </c>
       <c r="F74">
-        <v>0.0003472406866904575</v>
+        <v>0.0003794981169735478</v>
       </c>
       <c r="G74">
-        <v>0.001284628685980039</v>
+        <v>0.001372896764268344</v>
       </c>
       <c r="H74">
-        <v>0.0003206749272474269</v>
-      </c>
-      <c r="I74">
-        <v>0.0003419261049157636</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>0.0003962640627045069</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.0006844341072565168</v>
+        <v>0.0007590897325043059</v>
       </c>
       <c r="C75">
-        <v>0.0006378095200325538</v>
+        <v>0.0007881528949560613</v>
       </c>
       <c r="D75">
-        <v>0.001264595167633737</v>
+        <v>0.0013393943828157</v>
       </c>
       <c r="E75">
-        <v>0.001025689914793211</v>
+        <v>0.0010857970647583</v>
       </c>
       <c r="F75">
-        <v>0.0005449438772426992</v>
+        <v>0.0006783237966064365</v>
       </c>
       <c r="G75">
-        <v>0.001745445401541306</v>
+        <v>0.002013300179670334</v>
       </c>
       <c r="H75">
-        <v>0.0006780823235462665</v>
-      </c>
-      <c r="I75">
-        <v>0.000701491974519545</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>0.0007632927098414614</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.0002499522372335287</v>
+        <v>0.0002791661937506758</v>
       </c>
       <c r="C76">
-        <v>0.0001775673301679504</v>
+        <v>0.0002134331528716444</v>
       </c>
       <c r="D76">
-        <v>0.0001400717445226193</v>
+        <v>0.0001769426567052041</v>
       </c>
       <c r="E76">
-        <v>0.0001361912861238979</v>
+        <v>0.0001720406296771623</v>
       </c>
       <c r="F76">
-        <v>0.0001601389680336326</v>
+        <v>0.0001954124394537443</v>
       </c>
       <c r="G76">
-        <v>0.0001569111967130865</v>
+        <v>0.0001868061038397894</v>
       </c>
       <c r="H76">
-        <v>0.0005313736866805528</v>
-      </c>
-      <c r="I76">
-        <v>0.000121363462154917</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>0.0005837295675568426</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.0009971696961414195</v>
+        <v>0.001172725935545197</v>
       </c>
       <c r="C77">
-        <v>0.001106528148074497</v>
+        <v>0.001375704283641166</v>
       </c>
       <c r="D77">
-        <v>0.001673166626574985</v>
+        <v>0.001779191850828496</v>
       </c>
       <c r="E77">
-        <v>0.00244972375293156</v>
+        <v>0.002600514788228092</v>
       </c>
       <c r="F77">
-        <v>0.00129433960608942</v>
+        <v>0.001467614221887494</v>
       </c>
       <c r="G77">
-        <v>0.001726360792545076</v>
+        <v>0.002005549431561259</v>
       </c>
       <c r="H77">
-        <v>0.001149050294802701</v>
-      </c>
-      <c r="I77">
-        <v>0.001037277803106263</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>0.001421629328894337</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.0009939745257325563</v>
+        <v>0.001232549687104919</v>
       </c>
       <c r="C78">
-        <v>0.0008609672736511707</v>
+        <v>0.0009371785756725485</v>
       </c>
       <c r="D78">
-        <v>0.0007165186302405443</v>
+        <v>0.0007593372224206509</v>
       </c>
       <c r="E78">
-        <v>0.0009746835464738362</v>
+        <v>0.0009551813175365263</v>
       </c>
       <c r="F78">
-        <v>0.001512320147439803</v>
+        <v>0.00154200593978634</v>
       </c>
       <c r="G78">
-        <v>0.0009365960503479134</v>
+        <v>0.0009292661370129232</v>
       </c>
       <c r="H78">
-        <v>0.001093751131066417</v>
-      </c>
-      <c r="I78">
-        <v>0.0009884987144882741</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>0.00135076501389025</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.0002085148523636011</v>
+        <v>0.0002473280273276947</v>
       </c>
       <c r="C79">
-        <v>0.0002408925697498361</v>
+        <v>0.000267574298245921</v>
       </c>
       <c r="D79">
-        <v>0.0002677763847653379</v>
+        <v>0.0003016940286428366</v>
       </c>
       <c r="E79">
-        <v>0.0002116811730349649</v>
+        <v>0.0002623453767192278</v>
       </c>
       <c r="F79">
-        <v>0.0002291397594713788</v>
+        <v>0.0002708311365574466</v>
       </c>
       <c r="G79">
-        <v>0.0009066430091530876</v>
+        <v>0.001007918723119954</v>
       </c>
       <c r="H79">
-        <v>0.0002582271775972004</v>
-      </c>
-      <c r="I79">
-        <v>0.000225506923888951</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>0.0002918333978163639</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.0007307494358888996</v>
+        <v>0.0008293362024304328</v>
       </c>
       <c r="C80">
-        <v>0.0009085348818258349</v>
+        <v>0.001108905254396541</v>
       </c>
       <c r="D80">
-        <v>0.001069710233121205</v>
+        <v>0.001104526966799003</v>
       </c>
       <c r="E80">
-        <v>0.001230007802060671</v>
+        <v>0.001282262147972134</v>
       </c>
       <c r="F80">
-        <v>0.0007607089516240814</v>
+        <v>0.0008080037691092762</v>
       </c>
       <c r="G80">
-        <v>0.00115727138102587</v>
+        <v>0.001378624130339715</v>
       </c>
       <c r="H80">
-        <v>0.0007319767447872147</v>
-      </c>
-      <c r="I80">
-        <v>0.0007441003010041528</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>0.0008719213389368138</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.0006853173376346403</v>
+        <v>0.0007966701886484534</v>
       </c>
       <c r="C81">
-        <v>0.000438697098291544</v>
+        <v>0.000541032656363033</v>
       </c>
       <c r="D81">
-        <v>0.0004411757907923786</v>
+        <v>0.0004524038673158357</v>
       </c>
       <c r="E81">
-        <v>0.0003919240707653121</v>
+        <v>0.0004260585869925511</v>
       </c>
       <c r="F81">
-        <v>0.0007313987939663706</v>
+        <v>0.0007375619609771477</v>
       </c>
       <c r="G81">
-        <v>0.0003753817032857358</v>
+        <v>0.0004464022477165763</v>
       </c>
       <c r="H81">
-        <v>0.0004574788309459018</v>
-      </c>
-      <c r="I81">
-        <v>0.0004576767125537886</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>0.0004701199290224413</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.001182125940926124</v>
+        <v>0.001396457996520304</v>
       </c>
       <c r="C82">
-        <v>0.0002816343824398838</v>
+        <v>0.0002749533184754277</v>
       </c>
       <c r="D82">
-        <v>0.0007059878569939979</v>
+        <v>0.0006991991797057617</v>
       </c>
       <c r="E82">
-        <v>0.0006962609534670965</v>
+        <v>0.000715616614550051</v>
       </c>
       <c r="F82">
-        <v>0.0005571719552785217</v>
+        <v>0.0006203783427854109</v>
       </c>
       <c r="G82">
-        <v>0.000484392949045141</v>
+        <v>0.0004619676287244582</v>
       </c>
       <c r="H82">
-        <v>0.0005185734983048627</v>
-      </c>
-      <c r="I82">
-        <v>0.0006186711653954786</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>0.0006412630316237484</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.0009970017420647091</v>
+        <v>0.001087111759513379</v>
       </c>
       <c r="C83">
-        <v>0.0003981026993373354</v>
+        <v>0.0004843937718874928</v>
       </c>
       <c r="D83">
-        <v>0.0005762233413631468</v>
+        <v>0.0006529432314987297</v>
       </c>
       <c r="E83">
-        <v>0.000405902211265614</v>
+        <v>0.0005001856845320384</v>
       </c>
       <c r="F83">
-        <v>0.0006306457320211476</v>
+        <v>0.0007092200512032856</v>
       </c>
       <c r="G83">
-        <v>0.0003900414739836008</v>
+        <v>0.0004601470253343426</v>
       </c>
       <c r="H83">
-        <v>0.0006157652185765039</v>
-      </c>
-      <c r="I83">
-        <v>0.0003842964404991068</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>0.0006908601575730311</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.0007424823909788134</v>
+        <v>0.000931402371776466</v>
       </c>
       <c r="C84">
-        <v>0.0008486217616697527</v>
+        <v>0.00101642275653784</v>
       </c>
       <c r="D84">
-        <v>0.001466942232553531</v>
+        <v>0.001566480650071518</v>
       </c>
       <c r="E84">
-        <v>0.001039762193919618</v>
+        <v>0.001115551601696012</v>
       </c>
       <c r="F84">
-        <v>0.001170547227258483</v>
+        <v>0.001255015329322428</v>
       </c>
       <c r="G84">
-        <v>0.001142946311054939</v>
+        <v>0.001317739876660805</v>
       </c>
       <c r="H84">
-        <v>0.0009343726233179328</v>
-      </c>
-      <c r="I84">
-        <v>0.0007845693399755527</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>0.001085772332131999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.0002457197906090401</v>
+        <v>0.0002284754578426969</v>
       </c>
       <c r="C85">
-        <v>0.0001521222536138888</v>
+        <v>0.0001434099903550759</v>
       </c>
       <c r="D85">
-        <v>0.00016065019487187</v>
+        <v>0.0001522422618801815</v>
       </c>
       <c r="E85">
-        <v>0.0003430972561877211</v>
+        <v>0.0003352110744492148</v>
       </c>
       <c r="F85">
-        <v>0.0002926303070506428</v>
+        <v>0.0003547487454811695</v>
       </c>
       <c r="G85">
-        <v>0.0001975883629449804</v>
+        <v>0.0002454420297355395</v>
       </c>
       <c r="H85">
-        <v>0.0001872362476817456</v>
-      </c>
-      <c r="I85">
-        <v>0.0002703376836475021</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>0.0001937113615334692</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.0005522787409386086</v>
+        <v>0.0006406722360223222</v>
       </c>
       <c r="C86">
-        <v>0.0003267981426114945</v>
+        <v>0.0004041607739781107</v>
       </c>
       <c r="D86">
-        <v>0.0008302295225847456</v>
+        <v>0.0008954577825433595</v>
       </c>
       <c r="E86">
-        <v>0.0007924339699853791</v>
+        <v>0.0008554427107963171</v>
       </c>
       <c r="F86">
-        <v>0.0003373343857538578</v>
+        <v>0.000395474055308489</v>
       </c>
       <c r="G86">
-        <v>0.0003717157844615899</v>
+        <v>0.0004605741318147658</v>
       </c>
       <c r="H86">
-        <v>0.0003651561453014767</v>
-      </c>
-      <c r="I86">
-        <v>0.0003280314125270139</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>0.0004511833992912363</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.0005257199930666538</v>
+        <v>0.0005821133873395166</v>
       </c>
       <c r="C87">
-        <v>0.0006558038406786342</v>
+        <v>0.0007759228102274295</v>
       </c>
       <c r="D87">
-        <v>0.000553895429509669</v>
+        <v>0.0006030264605125112</v>
       </c>
       <c r="E87">
-        <v>0.0005854724623433091</v>
+        <v>0.0006303538411015036</v>
       </c>
       <c r="F87">
-        <v>0.0009709825630064571</v>
+        <v>0.00105026898200963</v>
       </c>
       <c r="G87">
-        <v>0.000725187297719144</v>
+        <v>0.0008637564407752909</v>
       </c>
       <c r="H87">
-        <v>0.000498706846584819</v>
-      </c>
-      <c r="I87">
-        <v>0.0004512909046139998</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>0.0006290534160965447</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.0006602139819797459</v>
+        <v>0.0007755508225188387</v>
       </c>
       <c r="C88">
-        <v>0.0004982249777986857</v>
+        <v>0.0006049842199820213</v>
       </c>
       <c r="D88">
-        <v>0.0004514901458719513</v>
+        <v>0.0005276484782668954</v>
       </c>
       <c r="E88">
-        <v>0.0004879716603232838</v>
+        <v>0.0005670124874205229</v>
       </c>
       <c r="F88">
-        <v>0.001517757424586914</v>
+        <v>0.001645620751435231</v>
       </c>
       <c r="G88">
-        <v>0.000683855272073788</v>
+        <v>0.0007842896627006202</v>
       </c>
       <c r="H88">
-        <v>0.001095227029063359</v>
-      </c>
-      <c r="I88">
-        <v>0.0005170085942485229</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>0.001256740452242881</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.0003557686757001419</v>
+        <v>0.0003967726392729774</v>
       </c>
       <c r="C89">
-        <v>0.0003140830501832405</v>
+        <v>0.0002252824161148113</v>
       </c>
       <c r="D89">
-        <v>0.0003768601000340464</v>
+        <v>0.0004027935133574372</v>
       </c>
       <c r="E89">
-        <v>0.0003034220617062862</v>
+        <v>0.0002659328582120446</v>
       </c>
       <c r="F89">
-        <v>0.0003219188213272391</v>
+        <v>0.0002575577382800879</v>
       </c>
       <c r="G89">
-        <v>0.0003590302192130252</v>
+        <v>0.0002777491127653405</v>
       </c>
       <c r="H89">
-        <v>0.0003150799330785774</v>
-      </c>
-      <c r="I89">
-        <v>0.000707439396155285</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>0.0002440495127289544</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.0004758758695138484</v>
+        <v>0.0005626191672254578</v>
       </c>
       <c r="C90">
-        <v>0.0006492443341064002</v>
+        <v>0.0007838716317936595</v>
       </c>
       <c r="D90">
-        <v>0.0004601137244557922</v>
+        <v>0.0005261052201452005</v>
       </c>
       <c r="E90">
-        <v>0.001198987551934441</v>
+        <v>0.001289466223065973</v>
       </c>
       <c r="F90">
-        <v>0.0004029102129108348</v>
+        <v>0.0004676297108408713</v>
       </c>
       <c r="G90">
-        <v>0.001141696824138913</v>
+        <v>0.001307958686033311</v>
       </c>
       <c r="H90">
-        <v>0.0006283815346340828</v>
-      </c>
-      <c r="I90">
-        <v>0.0005052336551491379</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>0.0006863564345109984</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.0002535222923164931</v>
+        <v>0.0003073566164489449</v>
       </c>
       <c r="C91">
-        <v>0.0003499881567650004</v>
+        <v>0.0003998607366900396</v>
       </c>
       <c r="D91">
-        <v>0.0002834383009694653</v>
+        <v>0.0003241008070498378</v>
       </c>
       <c r="E91">
-        <v>0.0004744797054451695</v>
+        <v>0.0005260084898661307</v>
       </c>
       <c r="F91">
-        <v>0.0001957162874853834</v>
+        <v>0.00023687808545303</v>
       </c>
       <c r="G91">
-        <v>0.0006528614726143693</v>
+        <v>0.0007133587117300121</v>
       </c>
       <c r="H91">
-        <v>0.0003145537643450608</v>
-      </c>
-      <c r="I91">
-        <v>0.0002577784001507869</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>0.0003559749001054659</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.004353771727121822</v>
+        <v>0.004691125209052606</v>
       </c>
       <c r="C92">
-        <v>0.002783672953287466</v>
+        <v>0.003122472182228537</v>
       </c>
       <c r="D92">
-        <v>0.002286633678085526</v>
+        <v>0.002888608015405663</v>
       </c>
       <c r="E92">
-        <v>0.00236241921936484</v>
+        <v>0.00298434484170649</v>
       </c>
       <c r="F92">
-        <v>0.004478177058027192</v>
+        <v>0.005245889142912629</v>
       </c>
       <c r="G92">
-        <v>0.002135105054749659</v>
+        <v>0.002648454640887362</v>
       </c>
       <c r="H92">
-        <v>0.004820493724772614</v>
-      </c>
-      <c r="I92">
-        <v>0.002051339895910582</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>0.00516097264026104</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.0005449592717425299</v>
+        <v>0.0006507894195913361</v>
       </c>
       <c r="C93">
-        <v>0.0005508002887274373</v>
+        <v>0.0006755477371832079</v>
       </c>
       <c r="D93">
-        <v>0.0006964825034230747</v>
+        <v>0.0007367090716738298</v>
       </c>
       <c r="E93">
-        <v>0.001102989701064133</v>
+        <v>0.00115728784513593</v>
       </c>
       <c r="F93">
-        <v>0.0007974788299528494</v>
+        <v>0.000829161753873883</v>
       </c>
       <c r="G93">
-        <v>0.0005387928013650322</v>
+        <v>0.000652646490452929</v>
       </c>
       <c r="H93">
-        <v>0.0006321664906797207</v>
-      </c>
-      <c r="I93">
-        <v>0.0005570140420442605</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>0.0007382871474306123</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.0002930513843544511</v>
+        <v>0.0003415469073244578</v>
       </c>
       <c r="C94">
-        <v>0.0002172814885967622</v>
+        <v>0.0002638941678611603</v>
       </c>
       <c r="D94">
-        <v>0.000594519199946514</v>
+        <v>0.000637649753517929</v>
       </c>
       <c r="E94">
-        <v>0.0002812110275678256</v>
+        <v>0.0003160354873609281</v>
       </c>
       <c r="F94">
-        <v>0.0002907329151491435</v>
+        <v>0.0003208500229346896</v>
       </c>
       <c r="G94">
-        <v>0.0002423898418332828</v>
+        <v>0.0002999864979293752</v>
       </c>
       <c r="H94">
-        <v>0.0003578820068845101</v>
-      </c>
-      <c r="I94">
-        <v>0.0002258941839683186</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>0.0004112067225434296</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.0002342129505225001</v>
+        <v>0.0002958674560062159</v>
       </c>
       <c r="C95">
-        <v>0.0003077417403302171</v>
+        <v>0.0003178342768489359</v>
       </c>
       <c r="D95">
-        <v>0.0002276160482675635</v>
+        <v>0.0002371509786651559</v>
       </c>
       <c r="E95">
-        <v>0.0001821272337378731</v>
+        <v>0.0002139751626405462</v>
       </c>
       <c r="F95">
-        <v>0.0001570472001724265</v>
+        <v>0.0001816641258918648</v>
       </c>
       <c r="G95">
-        <v>0.000438074781851798</v>
+        <v>0.0004562677419722514</v>
       </c>
       <c r="H95">
-        <v>0.0003184238916170571</v>
-      </c>
-      <c r="I95">
-        <v>0.0002142842590992207</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>0.0003828354499034689</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.001121882244132312</v>
+        <v>0.001324784175884122</v>
       </c>
       <c r="C96">
-        <v>0.0004863841153297651</v>
+        <v>0.0005394306075208931</v>
       </c>
       <c r="D96">
-        <v>0.0006307606994699173</v>
+        <v>0.00060456962572976</v>
       </c>
       <c r="E96">
-        <v>0.0006523358664125956</v>
+        <v>0.0006336489481408674</v>
       </c>
       <c r="F96">
-        <v>0.0007435274737149574</v>
+        <v>0.00073348228181173</v>
       </c>
       <c r="G96">
-        <v>0.0004577215564300342</v>
+        <v>0.0004825573802033929</v>
       </c>
       <c r="H96">
-        <v>0.0004355445260266775</v>
-      </c>
-      <c r="I96">
-        <v>0.0007299792360609247</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>0.0004796158817167468</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.0002045489737003828</v>
+        <v>0.0002583941471339605</v>
       </c>
       <c r="C97">
-        <v>0.0003451092336879521</v>
+        <v>0.0003995758239779233</v>
       </c>
       <c r="D97">
-        <v>0.0003861962801998539</v>
+        <v>0.0004171255126156719</v>
       </c>
       <c r="E97">
-        <v>0.0004832131045990162</v>
+        <v>0.0005120016929618701</v>
       </c>
       <c r="F97">
-        <v>0.0002398826829220765</v>
+        <v>0.0002825302120514471</v>
       </c>
       <c r="G97">
-        <v>0.00028315649493631</v>
+        <v>0.0003319047955118437</v>
       </c>
       <c r="H97">
-        <v>0.0003148541039128047</v>
-      </c>
-      <c r="I97">
-        <v>0.0002423120368830043</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>0.0003434970096749192</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.001363835566000027</v>
+        <v>0.001550550521092668</v>
       </c>
       <c r="C98">
-        <v>0.001072933032235454</v>
+        <v>0.001288723719422626</v>
       </c>
       <c r="D98">
-        <v>0.001368094788281707</v>
+        <v>0.001457659537650725</v>
       </c>
       <c r="E98">
-        <v>0.0009986055941576984</v>
+        <v>0.001115032323257337</v>
       </c>
       <c r="F98">
-        <v>0.00174793498266044</v>
+        <v>0.001867308050266258</v>
       </c>
       <c r="G98">
-        <v>0.0008461445601398367</v>
+        <v>0.001048879713902539</v>
       </c>
       <c r="H98">
-        <v>0.001109496054361318</v>
-      </c>
-      <c r="I98">
-        <v>0.0008890950224248898</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>0.001295299768236875</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.000390529373655854</v>
+        <v>0.0003915398059836222</v>
       </c>
       <c r="C99">
-        <v>0.0002946707061960999</v>
+        <v>0.0002910363133901202</v>
       </c>
       <c r="D99">
-        <v>0.0001949759215933796</v>
+        <v>0.0002073166499172947</v>
       </c>
       <c r="E99">
-        <v>0.0001849891440047585</v>
+        <v>0.0002004023111847743</v>
       </c>
       <c r="F99">
-        <v>0.0001746887386062949</v>
+        <v>0.0002172884260405423</v>
       </c>
       <c r="G99">
-        <v>0.0002205444475184372</v>
+        <v>0.0002786005858908542</v>
       </c>
       <c r="H99">
-        <v>0.0002326960678909864</v>
-      </c>
-      <c r="I99">
-        <v>0.0002089693869246955</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>0.000288655690974487</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.001086196767374241</v>
+        <v>0.001272925590857575</v>
       </c>
       <c r="C100">
-        <v>0.001264295760705446</v>
+        <v>0.001467878956173764</v>
       </c>
       <c r="D100">
-        <v>0.001096609941032014</v>
+        <v>0.001227376742816604</v>
       </c>
       <c r="E100">
-        <v>0.00131357357315846</v>
+        <v>0.00142280025327799</v>
       </c>
       <c r="F100">
-        <v>0.001849126030456743</v>
+        <v>0.001956969871138797</v>
       </c>
       <c r="G100">
-        <v>0.0009154516448922319</v>
+        <v>0.001122196744728471</v>
       </c>
       <c r="H100">
-        <v>0.001592613448326993</v>
-      </c>
-      <c r="I100">
-        <v>0.0009733171539838736</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>0.001818538652400902</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.0005039458380882966</v>
+        <v>0.0006113598704564099</v>
       </c>
       <c r="C101">
-        <v>0.0004134039215075332</v>
+        <v>0.0004067594407812355</v>
       </c>
       <c r="D101">
-        <v>0.0005152363448846537</v>
+        <v>0.000502938928172804</v>
       </c>
       <c r="E101">
-        <v>0.0009204486320051207</v>
+        <v>0.0009172841285038185</v>
       </c>
       <c r="F101">
-        <v>0.0007315310739259768</v>
+        <v>0.0006862409836849698</v>
       </c>
       <c r="G101">
-        <v>0.0004767568027001237</v>
+        <v>0.0005795175216066604</v>
       </c>
       <c r="H101">
-        <v>0.0007071156223669344</v>
-      </c>
-      <c r="I101">
-        <v>0.0006372917507026335</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>0.0008829847855985164</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.001306477029789983</v>
+        <v>0.001412667535985955</v>
       </c>
       <c r="C102">
-        <v>0.001043854335421344</v>
+        <v>0.001168261420652301</v>
       </c>
       <c r="D102">
-        <v>0.0009130735398958899</v>
+        <v>0.001064375298301362</v>
       </c>
       <c r="E102">
-        <v>0.0008768659004693297</v>
+        <v>0.001020943131793737</v>
       </c>
       <c r="F102">
-        <v>0.001106256024368946</v>
+        <v>0.001249443156094224</v>
       </c>
       <c r="G102">
-        <v>0.0008057468979438063</v>
+        <v>0.0009796614675925122</v>
       </c>
       <c r="H102">
-        <v>0.001496793612977255</v>
-      </c>
-      <c r="I102">
-        <v>0.0008100381015307231</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>0.001617796937158964</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.0003800186600323567</v>
+        <v>0.000435536636148531</v>
       </c>
       <c r="C103">
-        <v>0.0002900992098988611</v>
+        <v>0.0003664663198026543</v>
       </c>
       <c r="D103">
-        <v>0.0004364856402498644</v>
+        <v>0.0004686399297923574</v>
       </c>
       <c r="E103">
-        <v>0.0004245791868125023</v>
+        <v>0.0004617877025003139</v>
       </c>
       <c r="F103">
-        <v>0.0002609144855055986</v>
+        <v>0.0003107021795850349</v>
       </c>
       <c r="G103">
-        <v>0.0006126415206178813</v>
+        <v>0.0006814081073938432</v>
       </c>
       <c r="H103">
-        <v>0.000430816122435541</v>
-      </c>
-      <c r="I103">
-        <v>0.0003087165028545039</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>0.0004675166962874698</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104">
-        <v>0.0002142034430011599</v>
+        <v>0.0002693302071514631</v>
       </c>
       <c r="C104">
-        <v>0.0002389431354018694</v>
+        <v>0.0003018429083223504</v>
       </c>
       <c r="D104">
-        <v>0.0002869780544159318</v>
+        <v>0.0003435337724080374</v>
       </c>
       <c r="E104">
-        <v>0.0003815879299349445</v>
+        <v>0.0004147708009541543</v>
       </c>
       <c r="F104">
-        <v>0.0001971235524587924</v>
+        <v>0.0002395541553917386</v>
       </c>
       <c r="G104">
-        <v>0.0008134839536165984</v>
+        <v>0.0008989082915361339</v>
       </c>
       <c r="H104">
-        <v>0.0004287774017246239</v>
-      </c>
-      <c r="I104">
-        <v>0.0002405120512204574</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>0.000463566438153182</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.0004883663237990931</v>
+        <v>0.0005767783652331249</v>
       </c>
       <c r="C105">
-        <v>0.0003714508952262455</v>
+        <v>0.0004660036365529403</v>
       </c>
       <c r="D105">
-        <v>0.0005822715149172789</v>
+        <v>0.0006556498529865826</v>
       </c>
       <c r="E105">
-        <v>0.000368048986351466</v>
+        <v>0.0004621373955654421</v>
       </c>
       <c r="F105">
-        <v>0.001418537973566001</v>
+        <v>0.001531381276164657</v>
       </c>
       <c r="G105">
-        <v>0.0004234879043564741</v>
+        <v>0.000494193345567403</v>
       </c>
       <c r="H105">
-        <v>0.0004697218792265767</v>
-      </c>
-      <c r="I105">
-        <v>0.0003634535992062612</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>0.000561736305038006</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0.0006105071304393453</v>
+        <v>0.0006995519557336136</v>
       </c>
       <c r="C106">
-        <v>0.000457217275499324</v>
+        <v>0.0005556424011451801</v>
       </c>
       <c r="D106">
-        <v>0.0005111463152272113</v>
+        <v>0.0005992731055484333</v>
       </c>
       <c r="E106">
-        <v>0.0007409245320240766</v>
+        <v>0.0008197691256761218</v>
       </c>
       <c r="F106">
-        <v>0.0008636065060663646</v>
+        <v>0.0009576977128384866</v>
       </c>
       <c r="G106">
-        <v>0.0006894116341380708</v>
+        <v>0.0007650567043932659</v>
       </c>
       <c r="H106">
-        <v>0.0006340187453476762</v>
-      </c>
-      <c r="I106">
-        <v>0.0004556180920778468</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>0.0007207491098237898</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
       <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.0006301551410013219</v>
+        <v>0.0006741945950560266</v>
       </c>
       <c r="C107">
-        <v>0.0004518712289221289</v>
+        <v>0.0005562724914190877</v>
       </c>
       <c r="D107">
-        <v>0.0004356123141102481</v>
+        <v>0.0004927877755741216</v>
       </c>
       <c r="E107">
-        <v>0.0004673106345351895</v>
+        <v>0.0005059241438392384</v>
       </c>
       <c r="F107">
-        <v>0.0004669113106259134</v>
+        <v>0.000568820067455553</v>
       </c>
       <c r="G107">
-        <v>0.0009452095129941268</v>
+        <v>0.001067665240355767</v>
       </c>
       <c r="H107">
-        <v>0.0005259839474179221</v>
-      </c>
-      <c r="I107">
-        <v>0.000418488262720631</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>0.0005615170909042662</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108" s="1">
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.0004460341261677226</v>
+        <v>0.00039514206993838</v>
       </c>
       <c r="C108">
-        <v>0.0003085429173095643</v>
+        <v>0.0003178624787930287</v>
       </c>
       <c r="D108">
-        <v>0.0003347668447979331</v>
+        <v>0.0002984161038632264</v>
       </c>
       <c r="E108">
-        <v>0.0003827675031831</v>
+        <v>0.0003400543790350931</v>
       </c>
       <c r="F108">
-        <v>0.0005073621772580527</v>
+        <v>0.0005620877991242663</v>
       </c>
       <c r="G108">
-        <v>0.0002942418681810392</v>
+        <v>0.0002819166183297762</v>
       </c>
       <c r="H108">
-        <v>0.0005564219977521076</v>
-      </c>
-      <c r="I108">
-        <v>0.0006769383418062948</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>0.0005245747106416714</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
       <c r="A109" s="1">
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0.00142834417390301</v>
+        <v>0.001714459463317564</v>
       </c>
       <c r="C109">
-        <v>0.0009739100864480612</v>
+        <v>0.0009932059571782638</v>
       </c>
       <c r="D109">
-        <v>0.0008470987713300901</v>
+        <v>0.0009681789431670863</v>
       </c>
       <c r="E109">
-        <v>0.0007701947450569868</v>
+        <v>0.0009729517005408641</v>
       </c>
       <c r="F109">
-        <v>0.001648030378072642</v>
+        <v>0.001714509030595403</v>
       </c>
       <c r="G109">
-        <v>0.0008084075107426422</v>
+        <v>0.0008433160490567084</v>
       </c>
       <c r="H109">
-        <v>0.0007150767583379994</v>
-      </c>
-      <c r="I109">
-        <v>0.0007712109538506138</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>0.0009033233646935447</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
       <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.0002644882436597864</v>
+        <v>0.0003320425126716856</v>
       </c>
       <c r="C110">
-        <v>0.000296117493136403</v>
+        <v>0.0003740689749690032</v>
       </c>
       <c r="D110">
-        <v>0.0002052795208858177</v>
+        <v>0.0001991868079374767</v>
       </c>
       <c r="E110">
-        <v>0.0003337431509021497</v>
+        <v>0.0003217611419459071</v>
       </c>
       <c r="F110">
-        <v>0.0004181578658094869</v>
+        <v>0.0004094818686368166</v>
       </c>
       <c r="G110">
-        <v>0.0002210921195114895</v>
+        <v>0.0002163308039989731</v>
       </c>
       <c r="H110">
-        <v>0.000180991521571994</v>
-      </c>
-      <c r="I110">
-        <v>0.0003062413407072059</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>0.0001855643149182051</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
       <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.0002218122341395456</v>
+        <v>0.0002571371500634895</v>
       </c>
       <c r="C111">
-        <v>0.0003582807926654574</v>
+        <v>0.0004006929051035249</v>
       </c>
       <c r="D111">
-        <v>0.0001783969315655869</v>
+        <v>0.0002100593973293844</v>
       </c>
       <c r="E111">
-        <v>0.0004312027708501541</v>
+        <v>0.000480661619006952</v>
       </c>
       <c r="F111">
-        <v>0.0001521330145331365</v>
+        <v>0.000180001287765507</v>
       </c>
       <c r="G111">
-        <v>0.0001889347722494808</v>
+        <v>0.0002299111495751415</v>
       </c>
       <c r="H111">
-        <v>0.0002452068195753793</v>
-      </c>
-      <c r="I111">
-        <v>0.0001700127896063639</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>0.0002702786242937319</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
       <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112">
-        <v>0.0009607484173678808</v>
+        <v>0.0009685746859046963</v>
       </c>
       <c r="C112">
-        <v>0.0003536797507078793</v>
+        <v>0.0003618827204690153</v>
       </c>
       <c r="D112">
-        <v>0.0005427491914316052</v>
+        <v>0.0005432636664035721</v>
       </c>
       <c r="E112">
-        <v>0.0003691874568940294</v>
+        <v>0.0003735317216010668</v>
       </c>
       <c r="F112">
-        <v>0.0004008629675524432</v>
+        <v>0.0004572423525979623</v>
       </c>
       <c r="G112">
-        <v>0.0006220235977546265</v>
+        <v>0.0007760589686587202</v>
       </c>
       <c r="H112">
-        <v>0.0003821244423219975</v>
-      </c>
-      <c r="I112">
-        <v>0.000561672946032684</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>0.0003972824152686677</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
       <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0.001266551584811856</v>
+        <v>0.00146527942988426</v>
       </c>
       <c r="C113">
-        <v>0.001258120147531833</v>
+        <v>0.001536068881876585</v>
       </c>
       <c r="D113">
-        <v>0.002444332368430685</v>
+        <v>0.002504881991179981</v>
       </c>
       <c r="E113">
-        <v>0.002464994964330555</v>
+        <v>0.002532731497782656</v>
       </c>
       <c r="F113">
-        <v>0.001606630877303544</v>
+        <v>0.001680385919616078</v>
       </c>
       <c r="G113">
-        <v>0.00193841242779881</v>
+        <v>0.002372863070518747</v>
       </c>
       <c r="H113">
-        <v>0.001287987458011962</v>
-      </c>
-      <c r="I113">
-        <v>0.001439976020763798</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>0.001585175178518055</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.0004806985151841449</v>
+        <v>0.0005950667741448053</v>
       </c>
       <c r="C114">
-        <v>0.0005084466488787274</v>
+        <v>0.0006414006449739433</v>
       </c>
       <c r="D114">
-        <v>0.0006094270965110941</v>
+        <v>0.0006631937610680894</v>
       </c>
       <c r="E114">
-        <v>0.0005596540837149676</v>
+        <v>0.0006200044645190367</v>
       </c>
       <c r="F114">
-        <v>0.001013951657914565</v>
+        <v>0.001077472566687951</v>
       </c>
       <c r="G114">
-        <v>0.0004595332165674538</v>
+        <v>0.0005432465754216573</v>
       </c>
       <c r="H114">
-        <v>0.001111962848810882</v>
-      </c>
-      <c r="I114">
-        <v>0.0004545455900105781</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>0.001277903060294807</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
       <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115">
-        <v>0.001053461301166315</v>
+        <v>0.001142605933703916</v>
       </c>
       <c r="C115">
-        <v>0.0006607602575476889</v>
+        <v>0.0007732548949715888</v>
       </c>
       <c r="D115">
-        <v>0.000751176697297849</v>
+        <v>0.0008143732624287589</v>
       </c>
       <c r="E115">
-        <v>0.0005704277221910641</v>
+        <v>0.000635391300354092</v>
       </c>
       <c r="F115">
-        <v>0.001220573402359535</v>
+        <v>0.00135796751909032</v>
       </c>
       <c r="G115">
-        <v>0.0005822815752747888</v>
+        <v>0.0006870236926605073</v>
       </c>
       <c r="H115">
-        <v>0.0005141685094735414</v>
-      </c>
-      <c r="I115">
-        <v>0.0005841683834535988</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>0.0006134707619044513</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
       <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.001151579452754229</v>
+        <v>0.001368315565252746</v>
       </c>
       <c r="C116">
-        <v>0.0007150220273783394</v>
+        <v>0.0008935739242709165</v>
       </c>
       <c r="D116">
-        <v>0.0008048427510685967</v>
+        <v>0.0008711852428687194</v>
       </c>
       <c r="E116">
-        <v>0.001147933963063453</v>
+        <v>0.001202997181332267</v>
       </c>
       <c r="F116">
-        <v>0.001330776289970015</v>
+        <v>0.001388958559086814</v>
       </c>
       <c r="G116">
-        <v>0.0006621230830342824</v>
+        <v>0.0007445704783118558</v>
       </c>
       <c r="H116">
-        <v>0.001113940900270055</v>
-      </c>
-      <c r="I116">
-        <v>0.0007528035499143498</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>0.001329030172120996</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
       <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.0004313308990775498</v>
+        <v>0.000498422810795582</v>
       </c>
       <c r="C117">
-        <v>0.0002373982355221713</v>
+        <v>0.0002958076755631116</v>
       </c>
       <c r="D117">
-        <v>0.0002570409846125138</v>
+        <v>0.0003168182929334019</v>
       </c>
       <c r="E117">
-        <v>0.0003807215099536223</v>
+        <v>0.000423988363335994</v>
       </c>
       <c r="F117">
-        <v>0.000430440030459124</v>
+        <v>0.0004793777818065038</v>
       </c>
       <c r="G117">
-        <v>0.0006736990222499198</v>
+        <v>0.0007542695563060657</v>
       </c>
       <c r="H117">
-        <v>0.0003210776481994928</v>
-      </c>
-      <c r="I117">
-        <v>0.0002501891895039462</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>0.0003661231906670965</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
       <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.000436421346212926</v>
+        <v>0.0005233194883834175</v>
       </c>
       <c r="C118">
-        <v>0.0003166074053502863</v>
+        <v>0.0003839625103302989</v>
       </c>
       <c r="D118">
-        <v>0.0004206130303428626</v>
+        <v>0.0004455415426861987</v>
       </c>
       <c r="E118">
-        <v>0.0006354295833356057</v>
+        <v>0.0006767944512008794</v>
       </c>
       <c r="F118">
-        <v>0.0002485706016080127</v>
+        <v>0.0003016769752137353</v>
       </c>
       <c r="G118">
-        <v>0.0006355884317448691</v>
+        <v>0.0007338086191845007</v>
       </c>
       <c r="H118">
-        <v>0.0004394227470853188</v>
-      </c>
-      <c r="I118">
-        <v>0.0003309484500876417</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>0.0004741816186151364</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
       <c r="A119" s="1">
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.0004883423135526889</v>
+        <v>0.0005948901900547173</v>
       </c>
       <c r="C119">
-        <v>0.0004233969256041439</v>
+        <v>0.0005148186978573601</v>
       </c>
       <c r="D119">
-        <v>0.001168706327019978</v>
+        <v>0.001252083546509988</v>
       </c>
       <c r="E119">
-        <v>0.0006090174473926233</v>
+        <v>0.000672007239719311</v>
       </c>
       <c r="F119">
-        <v>0.0006044177421955417</v>
+        <v>0.0006586937403282488</v>
       </c>
       <c r="G119">
-        <v>0.0005535673778250737</v>
+        <v>0.0006562887203841268</v>
       </c>
       <c r="H119">
-        <v>0.0004430876610425603</v>
-      </c>
-      <c r="I119">
-        <v>0.0004098835905562394</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>0.0005534940643425934</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
       <c r="A120" s="1">
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.0005001515621254133</v>
+        <v>0.0006097723689980797</v>
       </c>
       <c r="C120">
-        <v>0.0004458286444549598</v>
+        <v>0.0005494995660032493</v>
       </c>
       <c r="D120">
-        <v>0.0009424708974618898</v>
+        <v>0.001021827957579105</v>
       </c>
       <c r="E120">
-        <v>0.001349923389243769</v>
+        <v>0.001447949100920305</v>
       </c>
       <c r="F120">
-        <v>0.0004647436328835494</v>
+        <v>0.0005450919777016578</v>
       </c>
       <c r="G120">
-        <v>0.0004741408472824146</v>
+        <v>0.0005855391116744473</v>
       </c>
       <c r="H120">
-        <v>0.000526614887889663</v>
-      </c>
-      <c r="I120">
-        <v>0.0004294267238867055</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>0.0006400614177292012</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
       <c r="A121" s="1">
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.00125408599002548</v>
+        <v>0.001465869514618228</v>
       </c>
       <c r="C121">
-        <v>0.0008482988167725609</v>
+        <v>0.0009761292490697086</v>
       </c>
       <c r="D121">
-        <v>0.0009063675755270921</v>
+        <v>0.0009689176730670732</v>
       </c>
       <c r="E121">
-        <v>0.0009651115200644891</v>
+        <v>0.001029720487825801</v>
       </c>
       <c r="F121">
-        <v>0.001836869035798629</v>
+        <v>0.001987152932105522</v>
       </c>
       <c r="G121">
-        <v>0.001075319665511789</v>
+        <v>0.001349173039469839</v>
       </c>
       <c r="H121">
-        <v>0.001898060603067056</v>
-      </c>
-      <c r="I121">
-        <v>0.0009375640758680476</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>0.002135271387404249</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
       <c r="A122" s="1">
         <v>120</v>
       </c>
       <c r="B122">
-        <v>0.0003892876772699474</v>
+        <v>0.0004539228805307814</v>
       </c>
       <c r="C122">
-        <v>0.000465664885911133</v>
+        <v>0.0005150738072987437</v>
       </c>
       <c r="D122">
-        <v>0.0003861186790180241</v>
+        <v>0.0004845859380651438</v>
       </c>
       <c r="E122">
-        <v>0.0006087564679968104</v>
+        <v>0.000676646383507576</v>
       </c>
       <c r="F122">
-        <v>0.0003877791294076355</v>
+        <v>0.0004481064451649359</v>
       </c>
       <c r="G122">
-        <v>0.0006977554830646354</v>
+        <v>0.0007690391343659654</v>
       </c>
       <c r="H122">
-        <v>0.0007051789722492402</v>
-      </c>
-      <c r="I122">
-        <v>0.0003687080795406089</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>0.0007858050677584107</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
       <c r="A123" s="1">
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.001487279572139921</v>
+        <v>0.001784177722901135</v>
       </c>
       <c r="C123">
-        <v>0.0009370270610473492</v>
+        <v>0.0009725287288334153</v>
       </c>
       <c r="D123">
-        <v>0.0008589783995698819</v>
+        <v>0.0009378347853852887</v>
       </c>
       <c r="E123">
-        <v>0.0008372657679896301</v>
+        <v>0.0009497569870252378</v>
       </c>
       <c r="F123">
-        <v>0.00148924320613659</v>
+        <v>0.001473103554108038</v>
       </c>
       <c r="G123">
-        <v>0.001223573536961791</v>
+        <v>0.001247955301891555</v>
       </c>
       <c r="H123">
-        <v>0.001162451144534985</v>
-      </c>
-      <c r="I123">
-        <v>0.001011075958511901</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>0.00145819183774235</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
       <c r="A124" s="1">
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.0003692347014776121</v>
+        <v>0.0004639900313644087</v>
       </c>
       <c r="C124">
-        <v>0.0003602143704528201</v>
+        <v>0.0003997782086103797</v>
       </c>
       <c r="D124">
-        <v>0.0006836789349016439</v>
+        <v>0.0006948758929460294</v>
       </c>
       <c r="E124">
-        <v>0.0006921568485197651</v>
+        <v>0.0007038190451476047</v>
       </c>
       <c r="F124">
-        <v>0.0003034256199598592</v>
+        <v>0.0003627609322027428</v>
       </c>
       <c r="G124">
-        <v>0.0006602067171868043</v>
+        <v>0.0008096094440012254</v>
       </c>
       <c r="H124">
-        <v>0.0003985775890893317</v>
-      </c>
-      <c r="I124">
-        <v>0.0004038023861141669</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>0.000435410175792507</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
       <c r="A125" s="1">
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.0002156391317230367</v>
+        <v>0.0002682128579837</v>
       </c>
       <c r="C125">
-        <v>0.0003181450116634963</v>
+        <v>0.0003397008942906737</v>
       </c>
       <c r="D125">
-        <v>0.0001948887898858799</v>
+        <v>0.0002221915891407208</v>
       </c>
       <c r="E125">
-        <v>0.0002469176421648366</v>
+        <v>0.0002961205634358159</v>
       </c>
       <c r="F125">
-        <v>0.0001795757314155249</v>
+        <v>0.0002262495063995162</v>
       </c>
       <c r="G125">
-        <v>0.0003987215299588243</v>
+        <v>0.0004158925401431868</v>
       </c>
       <c r="H125">
-        <v>0.0002150281772011202</v>
-      </c>
-      <c r="I125">
-        <v>0.0001763835810588729</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>0.0002434185661879897</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
       <c r="A126" s="1">
         <v>124</v>
       </c>
       <c r="B126">
-        <v>0.001111306647422406</v>
+        <v>0.001279123940442939</v>
       </c>
       <c r="C126">
-        <v>0.0004782159089402488</v>
+        <v>0.0005683706198060805</v>
       </c>
       <c r="D126">
-        <v>0.0005478889779478204</v>
+        <v>0.0005828468830814425</v>
       </c>
       <c r="E126">
-        <v>0.0007575170071977479</v>
+        <v>0.0008109379534633626</v>
       </c>
       <c r="F126">
-        <v>0.0006946303216904964</v>
+        <v>0.0007665628515425168</v>
       </c>
       <c r="G126">
-        <v>0.0006532580432505072</v>
+        <v>0.0007864118731419926</v>
       </c>
       <c r="H126">
-        <v>0.0005622715578002334</v>
-      </c>
-      <c r="I126">
-        <v>0.0005447435581060949</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>0.0005876725974854486</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
       <c r="A127" s="1">
         <v>125</v>
       </c>
       <c r="B127">
-        <v>0.0001943387544389544</v>
+        <v>0.0002140187013880641</v>
       </c>
       <c r="C127">
-        <v>0.0003567392745713541</v>
+        <v>0.0003981626759960031</v>
       </c>
       <c r="D127">
-        <v>0.0002377800213533407</v>
+        <v>0.0002761493319997622</v>
       </c>
       <c r="E127">
-        <v>0.000278471575661425</v>
+        <v>0.0003088236366078612</v>
       </c>
       <c r="F127">
-        <v>0.0001454818475118077</v>
+        <v>0.0001572921553181964</v>
       </c>
       <c r="G127">
-        <v>0.0001611633242263907</v>
+        <v>0.0001935537479699508</v>
       </c>
       <c r="H127">
-        <v>0.0001536027627354586</v>
-      </c>
-      <c r="I127">
-        <v>0.0001485803199775818</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>0.0001940358478132752</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
       <c r="A128" s="1">
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.0003835890517532055</v>
+        <v>0.0004332366245669108</v>
       </c>
       <c r="C128">
-        <v>0.0002844335043643949</v>
+        <v>0.0003447599371775655</v>
       </c>
       <c r="D128">
-        <v>0.0007311248243442158</v>
+        <v>0.0007735709561707181</v>
       </c>
       <c r="E128">
-        <v>0.0004348788012706267</v>
+        <v>0.000473338346231353</v>
       </c>
       <c r="F128">
-        <v>0.0002279186821143455</v>
+        <v>0.0002771827487178135</v>
       </c>
       <c r="G128">
-        <v>0.0004438595832326187</v>
+        <v>0.0005175438583925888</v>
       </c>
       <c r="H128">
-        <v>0.0002968104293520711</v>
-      </c>
-      <c r="I128">
-        <v>0.0002874845008107386</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>0.0003576349215890474</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
       <c r="A129" s="1">
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.0003768265199848853</v>
+        <v>0.0004301411493608206</v>
       </c>
       <c r="C129">
-        <v>0.0003450247465977751</v>
+        <v>0.000393167104912109</v>
       </c>
       <c r="D129">
-        <v>0.0004775620051097907</v>
+        <v>0.0004769787730161575</v>
       </c>
       <c r="E129">
-        <v>0.0004478354362433178</v>
+        <v>0.0004553768732603866</v>
       </c>
       <c r="F129">
-        <v>0.0002921499048159943</v>
+        <v>0.0003496131412287338</v>
       </c>
       <c r="G129">
-        <v>0.0009012920100986508</v>
+        <v>0.001044378218051527</v>
       </c>
       <c r="H129">
-        <v>0.0005053968356448001</v>
-      </c>
-      <c r="I129">
-        <v>0.0004507779017622861</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>0.0005078772021959301</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
       <c r="A130" s="1">
         <v>128</v>
       </c>
       <c r="B130">
-        <v>0.0007542834282369259</v>
+        <v>0.000952851573934849</v>
       </c>
       <c r="C130">
-        <v>0.000681589863534126</v>
+        <v>0.0008224946366937471</v>
       </c>
       <c r="D130">
-        <v>0.001248031157843175</v>
+        <v>0.001280816014120659</v>
       </c>
       <c r="E130">
-        <v>0.001392623969262849</v>
+        <v>0.001421576942811894</v>
       </c>
       <c r="F130">
-        <v>0.001156112586432306</v>
+        <v>0.001195786315729612</v>
       </c>
       <c r="G130">
-        <v>0.0007181055167134628</v>
+        <v>0.0008925783217282397</v>
       </c>
       <c r="H130">
-        <v>0.0007681163211239876</v>
-      </c>
-      <c r="I130">
-        <v>0.000759735448259257</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>0.0009618265091211005</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
       <c r="A131" s="1">
         <v>129</v>
       </c>
       <c r="B131">
-        <v>0.000435287834255066</v>
+        <v>0.0004899227427643855</v>
       </c>
       <c r="C131">
-        <v>0.0005039794030875327</v>
+        <v>0.0006021661442021164</v>
       </c>
       <c r="D131">
-        <v>0.0006126053805096753</v>
+        <v>0.0006647592673875756</v>
       </c>
       <c r="E131">
-        <v>0.0008170096840095801</v>
+        <v>0.0008718012395936456</v>
       </c>
       <c r="F131">
-        <v>0.0004557155457082792</v>
+        <v>0.0005121145170775464</v>
       </c>
       <c r="G131">
-        <v>0.0009041997767695293</v>
+        <v>0.001033920240395955</v>
       </c>
       <c r="H131">
-        <v>0.0004870974812759937</v>
-      </c>
-      <c r="I131">
-        <v>0.0004450933974908254</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>0.0005888223342856847</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
       <c r="A132" s="1">
         <v>130</v>
       </c>
       <c r="B132">
-        <v>0.0007503716560987703</v>
+        <v>0.000776345850456792</v>
       </c>
       <c r="C132">
-        <v>0.0002896985659287722</v>
+        <v>0.0003487896426011577</v>
       </c>
       <c r="D132">
-        <v>0.0004050199791496412</v>
+        <v>0.000378960411568516</v>
       </c>
       <c r="E132">
-        <v>0.0002953036673077749</v>
+        <v>0.0003314162510804928</v>
       </c>
       <c r="F132">
-        <v>0.0006362369156829376</v>
+        <v>0.000734359334994671</v>
       </c>
       <c r="G132">
-        <v>0.0003082122949094397</v>
+        <v>0.0003676094966093738</v>
       </c>
       <c r="H132">
-        <v>0.0003490573291750142</v>
-      </c>
-      <c r="I132">
-        <v>0.0004177583830246014</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>0.0003673903599244554</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
       <c r="A133" s="1">
         <v>131</v>
       </c>
       <c r="B133">
-        <v>0.001267160439359091</v>
+        <v>0.001600748474829485</v>
       </c>
       <c r="C133">
-        <v>0.001788593761776599</v>
+        <v>0.002194495486013337</v>
       </c>
       <c r="D133">
-        <v>0.002561791048037987</v>
+        <v>0.002716672729067108</v>
       </c>
       <c r="E133">
-        <v>0.002874229023948179</v>
+        <v>0.003026119756884325</v>
       </c>
       <c r="F133">
-        <v>0.002458214695408274</v>
+        <v>0.002676769714666398</v>
       </c>
       <c r="G133">
-        <v>0.001591674284989396</v>
+        <v>0.001960436046335513</v>
       </c>
       <c r="H133">
-        <v>0.002334218989446708</v>
-      </c>
-      <c r="I133">
-        <v>0.001443120886546617</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>0.00279382930996894</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
       <c r="A134" s="1">
         <v>132</v>
       </c>
       <c r="B134">
-        <v>0.0003966409455837939</v>
+        <v>0.0004776597618111414</v>
       </c>
       <c r="C134">
-        <v>0.0002707854497835756</v>
+        <v>0.0003005921982333614</v>
       </c>
       <c r="D134">
-        <v>0.0005635764777212267</v>
+        <v>0.0006080698458918992</v>
       </c>
       <c r="E134">
-        <v>0.000302885222066382</v>
+        <v>0.0003203672594425236</v>
       </c>
       <c r="F134">
-        <v>0.0002477067303292228</v>
+        <v>0.0002651438404893167</v>
       </c>
       <c r="G134">
-        <v>0.0005765632209153145</v>
+        <v>0.0006596360812272139</v>
       </c>
       <c r="H134">
-        <v>0.0002690702528706844</v>
-      </c>
-      <c r="I134">
-        <v>0.0002883988076228956</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>0.000323084589622476</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
       <c r="A135" s="1">
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0.0003527174956997208</v>
+        <v>0.0003728685953079817</v>
       </c>
       <c r="C135">
-        <v>0.0003890832277550228</v>
+        <v>0.0003806553355805735</v>
       </c>
       <c r="D135">
-        <v>0.0004820529023843429</v>
+        <v>0.0006049124588433442</v>
       </c>
       <c r="E135">
-        <v>0.0003502703427868268</v>
+        <v>0.0004065033339754673</v>
       </c>
       <c r="F135">
-        <v>0.000281869189664011</v>
+        <v>0.0003341463654790307</v>
       </c>
       <c r="G135">
-        <v>0.0007347605660599658</v>
+        <v>0.0007152947843992717</v>
       </c>
       <c r="H135">
-        <v>0.0004660399639062312</v>
-      </c>
-      <c r="I135">
-        <v>0.000469583889852022</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>0.0004539415551205517</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
       <c r="A136" s="1">
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0.0006315260333269602</v>
+        <v>0.0007677034096651066</v>
       </c>
       <c r="C136">
-        <v>0.0004184548450825998</v>
+        <v>0.0004212435041084064</v>
       </c>
       <c r="D136">
-        <v>0.0003946673467172867</v>
+        <v>0.000426936290363156</v>
       </c>
       <c r="E136">
-        <v>0.0004458211101363835</v>
+        <v>0.0004454987523632914</v>
       </c>
       <c r="F136">
-        <v>0.0004368229410221642</v>
+        <v>0.0004357001936116529</v>
       </c>
       <c r="G136">
-        <v>0.0008101555453978265</v>
+        <v>0.0008485414789916758</v>
       </c>
       <c r="H136">
-        <v>0.000781250274162463</v>
-      </c>
-      <c r="I136">
-        <v>0.0005417140975040306</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>0.000920388782678034</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
       <c r="A137" s="1">
         <v>135</v>
       </c>
       <c r="B137">
-        <v>0.0007281094644659535</v>
+        <v>0.000915768260909173</v>
       </c>
       <c r="C137">
-        <v>0.0009346408480322626</v>
+        <v>0.001072573039366861</v>
       </c>
       <c r="D137">
-        <v>0.001531564492816455</v>
+        <v>0.001682816499225229</v>
       </c>
       <c r="E137">
-        <v>0.001738596313509504</v>
+        <v>0.001900075855944021</v>
       </c>
       <c r="F137">
-        <v>0.0007867665990119245</v>
+        <v>0.0009692922878744226</v>
       </c>
       <c r="G137">
-        <v>0.0008602272350138979</v>
+        <v>0.001009425733940239</v>
       </c>
       <c r="H137">
-        <v>0.00131430812179168</v>
-      </c>
-      <c r="I137">
-        <v>0.0007403801721906682</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>0.001487202055060869</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
       <c r="A138" s="1">
         <v>136</v>
       </c>
       <c r="B138">
-        <v>0.0001983936089521987</v>
+        <v>0.0002336470849591762</v>
       </c>
       <c r="C138">
-        <v>0.0001576148371124363</v>
+        <v>0.0001863633092826458</v>
       </c>
       <c r="D138">
-        <v>0.0001771892838777156</v>
+        <v>0.0002067892540284197</v>
       </c>
       <c r="E138">
-        <v>0.0002600959750577968</v>
+        <v>0.0002787210520505164</v>
       </c>
       <c r="F138">
-        <v>0.0003247965121181355</v>
+        <v>0.0003527435687622833</v>
       </c>
       <c r="G138">
-        <v>0.0001866522265963672</v>
+        <v>0.0002206642129290671</v>
       </c>
       <c r="H138">
-        <v>0.0003023561820011304</v>
-      </c>
-      <c r="I138">
-        <v>0.0001626577740382553</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>0.0003457798969966972</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
       <c r="A139" s="1">
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0.0008552061297555285</v>
+        <v>0.001080343163781605</v>
       </c>
       <c r="C139">
-        <v>0.0005428999458519846</v>
+        <v>0.0005353769127240706</v>
       </c>
       <c r="D139">
-        <v>0.0004169705144474723</v>
+        <v>0.0004083875534294496</v>
       </c>
       <c r="E139">
-        <v>0.0005478094841046672</v>
+        <v>0.0004781926925765884</v>
       </c>
       <c r="F139">
-        <v>0.00045513227715267</v>
+        <v>0.0004616414006971594</v>
       </c>
       <c r="G139">
-        <v>0.0008127431152715595</v>
+        <v>0.0007608667969259728</v>
       </c>
       <c r="H139">
-        <v>0.0007190429448195599</v>
-      </c>
-      <c r="I139">
-        <v>0.0008843919617551703</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>0.0006529119977031623</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
       <c r="A140" s="1">
         <v>138</v>
       </c>
       <c r="B140">
-        <v>0.0002974209046541367</v>
+        <v>0.0003347740042130368</v>
       </c>
       <c r="C140">
-        <v>0.0002828679171848454</v>
+        <v>0.0003544475568919863</v>
       </c>
       <c r="D140">
-        <v>0.0003010509907448463</v>
+        <v>0.000322546283770391</v>
       </c>
       <c r="E140">
-        <v>0.0003704406114491396</v>
+        <v>0.000395087701992654</v>
       </c>
       <c r="F140">
-        <v>0.0002614598609840003</v>
+        <v>0.0003254560483311141</v>
       </c>
       <c r="G140">
-        <v>0.0007919986918181111</v>
+        <v>0.0009086346593451507</v>
       </c>
       <c r="H140">
-        <v>0.0003317806494183529</v>
-      </c>
-      <c r="I140">
-        <v>0.0002636206319823494</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>0.0003572775844971332</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
       <c r="A141" s="1">
         <v>139</v>
       </c>
       <c r="B141">
-        <v>0.0003942302944254972</v>
+        <v>0.0004676652065200792</v>
       </c>
       <c r="C141">
-        <v>0.0004149433646296906</v>
+        <v>0.000505202471970663</v>
       </c>
       <c r="D141">
-        <v>0.0005565622923053003</v>
+        <v>0.0005718047279455105</v>
       </c>
       <c r="E141">
-        <v>0.0005443044443166412</v>
+        <v>0.0005628228910257877</v>
       </c>
       <c r="F141">
-        <v>0.0007047049372340898</v>
+        <v>0.0007270413205241013</v>
       </c>
       <c r="G141">
-        <v>0.0003539065606082922</v>
+        <v>0.0004470715797040197</v>
       </c>
       <c r="H141">
-        <v>0.000432670152982005</v>
-      </c>
-      <c r="I141">
-        <v>0.0003709284822097057</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>0.0005465704581790029</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
       <c r="A142" s="1">
         <v>140</v>
       </c>
       <c r="B142">
-        <v>0.0008083449446627179</v>
+        <v>0.0009788868162087286</v>
       </c>
       <c r="C142">
-        <v>0.0004554040448359907</v>
+        <v>0.0005102158377748693</v>
       </c>
       <c r="D142">
-        <v>0.0004850958235362496</v>
+        <v>0.0005355191456851819</v>
       </c>
       <c r="E142">
-        <v>0.0004753065561444643</v>
+        <v>0.0005236488369980509</v>
       </c>
       <c r="F142">
-        <v>0.0008599563426071122</v>
+        <v>0.000900766402948383</v>
       </c>
       <c r="G142">
-        <v>0.000628672661297256</v>
+        <v>0.0006585543022067767</v>
       </c>
       <c r="H142">
-        <v>0.001196078000522836</v>
-      </c>
-      <c r="I142">
-        <v>0.0005519550057638131</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>0.001396313798349142</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
       <c r="A143" s="1">
         <v>141</v>
       </c>
       <c r="B143">
-        <v>9.715897905475627E-05</v>
+        <v>0.0001227326859860755</v>
       </c>
       <c r="C143">
-        <v>7.605368743167525E-05</v>
+        <v>8.103074733196975E-05</v>
       </c>
       <c r="D143">
-        <v>0.0002051218545066005</v>
+        <v>0.0002076394716033622</v>
       </c>
       <c r="E143">
-        <v>0.0002305676604772805</v>
+        <v>0.0002259816384849958</v>
       </c>
       <c r="F143">
-        <v>0.0001904123014886778</v>
+        <v>0.0002009807258425761</v>
       </c>
       <c r="G143">
-        <v>0.0002024149425715537</v>
+        <v>0.0002556983114369073</v>
       </c>
       <c r="H143">
-        <v>0.0001102438679069688</v>
-      </c>
-      <c r="I143">
-        <v>0.0001356724928168272</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>0.0001392622998156178</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
       <c r="A144" s="1">
         <v>142</v>
       </c>
       <c r="B144">
-        <v>0.0006989942549157205</v>
+        <v>0.0008577566908371776</v>
       </c>
       <c r="C144">
-        <v>0.0006536787945622007</v>
+        <v>0.0007961666919448252</v>
       </c>
       <c r="D144">
-        <v>0.0006716097068773735</v>
+        <v>0.00068693964031528</v>
       </c>
       <c r="E144">
-        <v>0.0006542544548844011</v>
+        <v>0.0006623667841272535</v>
       </c>
       <c r="F144">
-        <v>0.000971867379198498</v>
+        <v>0.001003323356375437</v>
       </c>
       <c r="G144">
-        <v>0.0007265719889528998</v>
+        <v>0.0008720929340536694</v>
       </c>
       <c r="H144">
-        <v>0.0005602131486298717</v>
-      </c>
-      <c r="I144">
-        <v>0.0005827645692880076</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>0.0006221284206194027</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
       <c r="A145" s="1">
         <v>143</v>
       </c>
       <c r="B145">
-        <v>0.0006263459465337512</v>
+        <v>0.0007832216142081385</v>
       </c>
       <c r="C145">
-        <v>0.0006269696754361135</v>
+        <v>0.0006401820290665141</v>
       </c>
       <c r="D145">
-        <v>0.0006709257447994186</v>
+        <v>0.0006633887141310176</v>
       </c>
       <c r="E145">
-        <v>0.0008255956747286383</v>
+        <v>0.0008276182229625024</v>
       </c>
       <c r="F145">
-        <v>0.0007631780434408473</v>
+        <v>0.000764436443081303</v>
       </c>
       <c r="G145">
-        <v>0.0009121429947098742</v>
+        <v>0.001098757356227948</v>
       </c>
       <c r="H145">
-        <v>0.0005657610688129166</v>
-      </c>
-      <c r="I145">
-        <v>0.0006586306006824275</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>0.0006952058482837721</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
       <c r="A146" s="1">
         <v>144</v>
       </c>
       <c r="B146">
-        <v>0.0004643094633922976</v>
+        <v>0.0004692557740835936</v>
       </c>
       <c r="C146">
-        <v>0.0002287970972728253</v>
+        <v>0.0002378444747468139</v>
       </c>
       <c r="D146">
-        <v>0.0002424704843411276</v>
+        <v>0.0002554421503287103</v>
       </c>
       <c r="E146">
-        <v>0.0004316431567178507</v>
+        <v>0.000437380710648026</v>
       </c>
       <c r="F146">
-        <v>0.0002851652287722367</v>
+        <v>0.0003554984170011346</v>
       </c>
       <c r="G146">
-        <v>0.0003390754912627506</v>
+        <v>0.0003709315947850673</v>
       </c>
       <c r="H146">
-        <v>0.0003082506025901934</v>
-      </c>
-      <c r="I146">
-        <v>0.0003206672450173282</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>0.0003736982665066802</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
       <c r="A147" s="1">
         <v>145</v>
       </c>
       <c r="B147">
-        <v>0.001103938185359755</v>
+        <v>0.001255999703442375</v>
       </c>
       <c r="C147">
-        <v>0.0006135145923443077</v>
+        <v>0.0007480723047834903</v>
       </c>
       <c r="D147">
-        <v>0.0008577905882272888</v>
+        <v>0.0009699838062800059</v>
       </c>
       <c r="E147">
-        <v>0.0006244501848429942</v>
+        <v>0.0007566256545986927</v>
       </c>
       <c r="F147">
-        <v>0.001725451076286571</v>
+        <v>0.001890835427285641</v>
       </c>
       <c r="G147">
-        <v>0.0006534025216484938</v>
+        <v>0.0007734359393625634</v>
       </c>
       <c r="H147">
-        <v>0.0009064073922174389</v>
-      </c>
-      <c r="I147">
-        <v>0.0005986794892510987</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>0.001040946043235697</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
       <c r="A148" s="1">
         <v>146</v>
       </c>
       <c r="B148">
-        <v>0.0006294039027429978</v>
+        <v>0.0006764671486123422</v>
       </c>
       <c r="C148">
-        <v>0.0004246838406976404</v>
+        <v>0.0005092050654232918</v>
       </c>
       <c r="D148">
-        <v>0.0003659795185444189</v>
+        <v>0.000427021320179911</v>
       </c>
       <c r="E148">
-        <v>0.0003411774812891618</v>
+        <v>0.0004238909353643591</v>
       </c>
       <c r="F148">
-        <v>0.0002612586383878535</v>
+        <v>0.0003120019614415103</v>
       </c>
       <c r="G148">
-        <v>0.0009238454809658707</v>
+        <v>0.001040600560066131</v>
       </c>
       <c r="H148">
-        <v>0.0006070832839658791</v>
-      </c>
-      <c r="I148">
-        <v>0.0003583466190075783</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>0.0006470403983118098</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
       <c r="A149" s="1">
         <v>147</v>
       </c>
       <c r="B149">
-        <v>0.0002821388908645051</v>
+        <v>0.0002997256872515953</v>
       </c>
       <c r="C149">
-        <v>0.0006031020340666835</v>
+        <v>0.0006201993819312051</v>
       </c>
       <c r="D149">
-        <v>0.000238083920753373</v>
+        <v>0.0002634231902569862</v>
       </c>
       <c r="E149">
-        <v>0.0002981586356094229</v>
+        <v>0.000369587523988191</v>
       </c>
       <c r="F149">
-        <v>0.0003675267201739144</v>
+        <v>0.0004444886279266964</v>
       </c>
       <c r="G149">
-        <v>0.0004483491793678459</v>
+        <v>0.0004479378331278019</v>
       </c>
       <c r="H149">
-        <v>0.0002580096989069237</v>
-      </c>
-      <c r="I149">
-        <v>0.000331364790866463</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>0.0002883416848202959</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
       <c r="A150" s="1">
         <v>148</v>
       </c>
       <c r="B150">
-        <v>0.001052102465812745</v>
+        <v>0.001215763196345152</v>
       </c>
       <c r="C150">
-        <v>0.0007502573569624856</v>
+        <v>0.0009227910052090448</v>
       </c>
       <c r="D150">
-        <v>0.0009341921119374914</v>
+        <v>0.001031596513989791</v>
       </c>
       <c r="E150">
-        <v>0.001144795187930923</v>
+        <v>0.001218123779024734</v>
       </c>
       <c r="F150">
-        <v>0.001333174714276015</v>
+        <v>0.001414187157465369</v>
       </c>
       <c r="G150">
-        <v>0.0007019729616691501</v>
+        <v>0.000871911890995696</v>
       </c>
       <c r="H150">
-        <v>0.00109647730853404</v>
-      </c>
-      <c r="I150">
-        <v>0.0007314253061446902</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>0.001260856239529304</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
       <c r="A151" s="1">
         <v>149</v>
       </c>
       <c r="B151">
-        <v>0.000233725475342338</v>
+        <v>0.0002899663244409695</v>
       </c>
       <c r="C151">
-        <v>0.0002956245251841364</v>
+        <v>0.0003410681509568815</v>
       </c>
       <c r="D151">
-        <v>0.0002672651271641459</v>
+        <v>0.000308225841845764</v>
       </c>
       <c r="E151">
-        <v>0.0002164383894411143</v>
+        <v>0.0002666048072904064</v>
       </c>
       <c r="F151">
-        <v>0.0002490257882566725</v>
+        <v>0.0002851206083917156</v>
       </c>
       <c r="G151">
-        <v>0.0005113350366292523</v>
+        <v>0.0005733708939179059</v>
       </c>
       <c r="H151">
-        <v>0.0006017348839391329</v>
-      </c>
-      <c r="I151">
-        <v>0.0002153751492907995</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>0.0006640034455076804</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
       <c r="A152" s="1">
         <v>150</v>
       </c>
       <c r="B152">
-        <v>0.0005835492070283573</v>
+        <v>0.0006417568931985631</v>
       </c>
       <c r="C152">
-        <v>0.0005385399841713263</v>
+        <v>0.0006457852586663628</v>
       </c>
       <c r="D152">
-        <v>0.0007373776879940345</v>
+        <v>0.0007971506169631517</v>
       </c>
       <c r="E152">
-        <v>0.001028272825299231</v>
+        <v>0.001104133398828243</v>
       </c>
       <c r="F152">
-        <v>0.0004136112000603799</v>
+        <v>0.0004794391830114963</v>
       </c>
       <c r="G152">
-        <v>0.0005745687409772448</v>
+        <v>0.0006922368034895122</v>
       </c>
       <c r="H152">
-        <v>0.0005885657216150518</v>
-      </c>
-      <c r="I152">
-        <v>0.0004553377676634448</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>0.0007040971101350746</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
       <c r="A153" s="1">
         <v>151</v>
       </c>
       <c r="B153">
-        <v>0.0004138188681193208</v>
+        <v>0.0004935861040508782</v>
       </c>
       <c r="C153">
-        <v>0.0002533719342668825</v>
+        <v>0.00030984298822328</v>
       </c>
       <c r="D153">
-        <v>0.0002905711265780803</v>
+        <v>0.0002972634532701618</v>
       </c>
       <c r="E153">
-        <v>0.0002880035893772679</v>
+        <v>0.0002997638523397848</v>
       </c>
       <c r="F153">
-        <v>0.0005253734416365496</v>
+        <v>0.0005593299308723365</v>
       </c>
       <c r="G153">
-        <v>0.0002916626135272407</v>
+        <v>0.0003064734939897796</v>
       </c>
       <c r="H153">
-        <v>0.0004056126183765642</v>
-      </c>
-      <c r="I153">
-        <v>0.0002895084473832915</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>0.0004862685161268954</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
       <c r="A154" s="1">
         <v>152</v>
       </c>
       <c r="B154">
-        <v>0.0004352303828193038</v>
+        <v>0.000461137886221554</v>
       </c>
       <c r="C154">
-        <v>0.0003358379678507954</v>
+        <v>0.0003647007859169075</v>
       </c>
       <c r="D154">
-        <v>0.0003215893535615296</v>
+        <v>0.0003579476915911516</v>
       </c>
       <c r="E154">
-        <v>0.0005833425936877214</v>
+        <v>0.0006304064411205639</v>
       </c>
       <c r="F154">
-        <v>0.0007831768902257704</v>
+        <v>0.0009012932937470512</v>
       </c>
       <c r="G154">
-        <v>0.0004369510324734716</v>
+        <v>0.0005392699362201079</v>
       </c>
       <c r="H154">
-        <v>0.0003265555789260936</v>
-      </c>
-      <c r="I154">
-        <v>0.000351325686867269</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>0.0003725195312293802</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
       <c r="A155" s="1">
         <v>153</v>
       </c>
       <c r="B155">
-        <v>0.0004939770661169231</v>
+        <v>0.0006071133899049379</v>
       </c>
       <c r="C155">
-        <v>0.0005177170455766827</v>
+        <v>0.0006433881914999053</v>
       </c>
       <c r="D155">
-        <v>0.001048230694268416</v>
+        <v>0.001181327143954427</v>
       </c>
       <c r="E155">
-        <v>0.001156046743029018</v>
+        <v>0.001284743889831479</v>
       </c>
       <c r="F155">
-        <v>0.000744493471582805</v>
+        <v>0.0009333933282438002</v>
       </c>
       <c r="G155">
-        <v>0.0007550893215879825</v>
+        <v>0.0008639114057020316</v>
       </c>
       <c r="H155">
-        <v>0.0008726092514800756</v>
-      </c>
-      <c r="I155">
-        <v>0.0004429483991744516</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>0.0009858704167182248</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
       <c r="A156" s="1">
         <v>154</v>
       </c>
       <c r="B156">
-        <v>0.0004844699371396136</v>
+        <v>0.0005810238299920836</v>
       </c>
       <c r="C156">
-        <v>0.0004153812612079077</v>
+        <v>0.0005247300965378523</v>
       </c>
       <c r="D156">
-        <v>0.0007532486705900618</v>
+        <v>0.0007968559804098704</v>
       </c>
       <c r="E156">
-        <v>0.0005640642196633311</v>
+        <v>0.00061501022583724</v>
       </c>
       <c r="F156">
-        <v>0.000852630707458296</v>
+        <v>0.0008968174105562163</v>
       </c>
       <c r="G156">
-        <v>0.0007377084829475446</v>
+        <v>0.0008593624201884013</v>
       </c>
       <c r="H156">
-        <v>0.000410337088414473</v>
-      </c>
-      <c r="I156">
-        <v>0.0004243580720115279</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+        <v>0.0005183579959180706</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
       <c r="A157" s="1">
         <v>155</v>
       </c>
       <c r="B157">
-        <v>0.0003426184950091549</v>
+        <v>0.0004184012325913164</v>
       </c>
       <c r="C157">
-        <v>0.0004868932087326625</v>
+        <v>0.0005331889033265714</v>
       </c>
       <c r="D157">
-        <v>0.0003416373541912774</v>
+        <v>0.0004150049622970143</v>
       </c>
       <c r="E157">
-        <v>0.000302262964055811</v>
+        <v>0.0003727971840703113</v>
       </c>
       <c r="F157">
-        <v>0.0005416191961066467</v>
+        <v>0.0006250486702645201</v>
       </c>
       <c r="G157">
-        <v>0.0007695718493621094</v>
+        <v>0.0008252646714834109</v>
       </c>
       <c r="H157">
-        <v>0.0003498227997386181</v>
-      </c>
-      <c r="I157">
-        <v>0.0002830204655131184</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+        <v>0.0004123644846869908</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
       <c r="A158" s="1">
         <v>156</v>
       </c>
       <c r="B158">
-        <v>0.0007656000282980259</v>
+        <v>0.0009061746677768458</v>
       </c>
       <c r="C158">
-        <v>0.001192512177624075</v>
+        <v>0.001457123352018634</v>
       </c>
       <c r="D158">
-        <v>0.001335155793366819</v>
+        <v>0.001353189586551624</v>
       </c>
       <c r="E158">
-        <v>0.001168769961935558</v>
+        <v>0.001172346940277069</v>
       </c>
       <c r="F158">
-        <v>0.001053555453344387</v>
+        <v>0.001109051631999028</v>
       </c>
       <c r="G158">
-        <v>0.001176104800850542</v>
+        <v>0.00142832398194945</v>
       </c>
       <c r="H158">
-        <v>0.000796093891351226</v>
-      </c>
-      <c r="I158">
-        <v>0.0009155672250216358</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+        <v>0.0008762215507244176</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
       <c r="A159" s="1">
         <v>157</v>
       </c>
       <c r="B159">
-        <v>0.000259295369556953</v>
+        <v>0.0002531517345696528</v>
       </c>
       <c r="C159">
-        <v>0.0002970752064645825</v>
+        <v>0.0003752788156984898</v>
       </c>
       <c r="D159">
-        <v>0.00041074299766893</v>
+        <v>0.000410087508685071</v>
       </c>
       <c r="E159">
-        <v>0.000273550105985671</v>
+        <v>0.0002640904595343605</v>
       </c>
       <c r="F159">
-        <v>0.0001844148495184161</v>
+        <v>0.0001916916628319646</v>
       </c>
       <c r="G159">
-        <v>0.0005519443751878164</v>
+        <v>0.000665973257556327</v>
       </c>
       <c r="H159">
-        <v>0.0002595957714813808</v>
-      </c>
-      <c r="I159">
-        <v>0.0003278358530899706</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+        <v>0.0002510194769799417</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
       <c r="A160" s="1">
         <v>158</v>
       </c>
       <c r="B160">
-        <v>0.0004496206152542673</v>
+        <v>0.000512830825375074</v>
       </c>
       <c r="C160">
-        <v>0.0002474580313867043</v>
+        <v>0.0002831474144891804</v>
       </c>
       <c r="D160">
-        <v>0.0002249908800105785</v>
+        <v>0.0002623722537601358</v>
       </c>
       <c r="E160">
-        <v>0.0002737860628567417</v>
+        <v>0.0003236047322605479</v>
       </c>
       <c r="F160">
-        <v>0.0001519530230839813</v>
+        <v>0.000185918877481813</v>
       </c>
       <c r="G160">
-        <v>0.0006622927206635636</v>
+        <v>0.0007207168165749016</v>
       </c>
       <c r="H160">
-        <v>0.0002052359314898086</v>
-      </c>
-      <c r="I160">
-        <v>0.0002051290911699663</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+        <v>0.0002508285623845899</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
       <c r="A161" s="1">
         <v>159</v>
       </c>
       <c r="B161">
-        <v>0.0003222016105801543</v>
+        <v>0.0004059008483514857</v>
       </c>
       <c r="C161">
-        <v>0.0004190590056340283</v>
+        <v>0.0004602286393027045</v>
       </c>
       <c r="D161">
-        <v>0.0003220634334554792</v>
+        <v>0.0004040522239501427</v>
       </c>
       <c r="E161">
-        <v>0.0003144222877375919</v>
+        <v>0.00037877848897861</v>
       </c>
       <c r="F161">
-        <v>0.001141004973335759</v>
+        <v>0.001208976311791014</v>
       </c>
       <c r="G161">
-        <v>0.0002911229982639018</v>
+        <v>0.0003606831446044526</v>
       </c>
       <c r="H161">
-        <v>0.0004361469359156168</v>
-      </c>
-      <c r="I161">
-        <v>0.0003220822243892171</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
+        <v>0.000475079255225945</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
       <c r="A162" s="1">
         <v>160</v>
       </c>
       <c r="B162">
-        <v>0.0005078312507029077</v>
+        <v>0.0005352585129256842</v>
       </c>
       <c r="C162">
-        <v>0.0002463428626691751</v>
+        <v>0.0003009355841062577</v>
       </c>
       <c r="D162">
-        <v>0.0003134143206828127</v>
+        <v>0.0003647529339603418</v>
       </c>
       <c r="E162">
-        <v>0.0003106449721333676</v>
+        <v>0.0003635941400288602</v>
       </c>
       <c r="F162">
-        <v>0.000304483034242368</v>
+        <v>0.0003593853309055256</v>
       </c>
       <c r="G162">
-        <v>0.0002330022577645455</v>
+        <v>0.0002943380365376029</v>
       </c>
       <c r="H162">
-        <v>0.0005407097961451536</v>
-      </c>
-      <c r="I162">
-        <v>0.0002482296937165107</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
+        <v>0.0005712685400826455</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
       <c r="A163" s="1">
         <v>161</v>
       </c>
       <c r="B163">
-        <v>0.00187335651561416</v>
+        <v>0.002001460785531063</v>
       </c>
       <c r="C163">
-        <v>0.001622090140018548</v>
+        <v>0.001858326702463022</v>
       </c>
       <c r="D163">
-        <v>0.0007288710128271108</v>
+        <v>0.0007818628380928448</v>
       </c>
       <c r="E163">
-        <v>0.0006722027346621385</v>
+        <v>0.0007213573661945812</v>
       </c>
       <c r="F163">
-        <v>0.001223208484868267</v>
+        <v>0.001346308476175981</v>
       </c>
       <c r="G163">
-        <v>0.0008170107651159665</v>
+        <v>0.0009556322269597924</v>
       </c>
       <c r="H163">
-        <v>0.001047304946310905</v>
-      </c>
-      <c r="I163">
-        <v>0.001025181768640583</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
+        <v>0.001125907486803514</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
       <c r="A164" s="1">
         <v>162</v>
       </c>
       <c r="B164">
-        <v>0.001084920143486456</v>
+        <v>0.001077006010186169</v>
       </c>
       <c r="C164">
-        <v>0.0005549632498797969</v>
+        <v>0.0006540574058520773</v>
       </c>
       <c r="D164">
-        <v>0.0005046073516195435</v>
+        <v>0.0004966163211344529</v>
       </c>
       <c r="E164">
-        <v>0.0004876703612420512</v>
+        <v>0.0004967857432627906</v>
       </c>
       <c r="F164">
-        <v>0.0005104185973408638</v>
+        <v>0.0005819217579381694</v>
       </c>
       <c r="G164">
-        <v>0.0005692854082796599</v>
+        <v>0.0006884919671958662</v>
       </c>
       <c r="H164">
-        <v>0.0008448986309231652</v>
-      </c>
-      <c r="I164">
-        <v>0.0007452358210209082</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
+        <v>0.0008200750678547426</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
       <c r="A165" s="1">
         <v>163</v>
       </c>
       <c r="B165">
-        <v>0.0005169920823149084</v>
+        <v>0.0006474414163455084</v>
       </c>
       <c r="C165">
-        <v>0.0003646515914611546</v>
+        <v>0.0003984059963931423</v>
       </c>
       <c r="D165">
-        <v>0.0005743477423752466</v>
+        <v>0.0005935717103129015</v>
       </c>
       <c r="E165">
-        <v>0.0003993052241035687</v>
+        <v>0.000412685683717907</v>
       </c>
       <c r="F165">
-        <v>0.000313287480942252</v>
+        <v>0.0003420626626790489</v>
       </c>
       <c r="G165">
-        <v>0.0009460415211164083</v>
+        <v>0.0011124652535848</v>
       </c>
       <c r="H165">
-        <v>0.0004667351817780033</v>
-      </c>
-      <c r="I165">
-        <v>0.0004266901019915118</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
+        <v>0.000478540268026987</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
       <c r="A166" s="1">
         <v>164</v>
       </c>
       <c r="B166">
-        <v>0.0001278561307118889</v>
+        <v>0.0001615111630744383</v>
       </c>
       <c r="C166">
-        <v>0.000128968362224754</v>
+        <v>0.0001455587723810517</v>
       </c>
       <c r="D166">
-        <v>0.0003851168268329386</v>
+        <v>0.0004015291665531494</v>
       </c>
       <c r="E166">
-        <v>0.0002813677509304342</v>
+        <v>0.0002957278741008374</v>
       </c>
       <c r="F166">
-        <v>0.0002807781943182839</v>
+        <v>0.0003260268221202829</v>
       </c>
       <c r="G166">
-        <v>0.0001267709902607342</v>
+        <v>0.0001501072956867258</v>
       </c>
       <c r="H166">
-        <v>0.0001908025555677978</v>
-      </c>
-      <c r="I166">
-        <v>0.0001647739983766662</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
+        <v>0.0002336437886728952</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
       <c r="A167" s="1">
         <v>165</v>
       </c>
       <c r="B167">
-        <v>0.0004128660726186745</v>
+        <v>0.0004226380347281484</v>
       </c>
       <c r="C167">
-        <v>0.0003515388155912612</v>
+        <v>0.0004376172748057032</v>
       </c>
       <c r="D167">
-        <v>0.0006184776130908277</v>
+        <v>0.0006368410639953639</v>
       </c>
       <c r="E167">
-        <v>0.0003365589476574934</v>
+        <v>0.0003641096628595732</v>
       </c>
       <c r="F167">
-        <v>0.000447499556521065</v>
+        <v>0.0004637404250445962</v>
       </c>
       <c r="G167">
-        <v>0.0003684541887594415</v>
+        <v>0.0004472112705307637</v>
       </c>
       <c r="H167">
-        <v>0.0004056482749825723</v>
-      </c>
-      <c r="I167">
-        <v>0.0003425935944069469</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
+        <v>0.000510363833209725</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
       <c r="A168" s="1">
         <v>166</v>
       </c>
       <c r="B168">
-        <v>0.001512398134422554</v>
+        <v>0.001863169104127781</v>
       </c>
       <c r="C168">
-        <v>0.001211880772435636</v>
+        <v>0.001349774578796512</v>
       </c>
       <c r="D168">
-        <v>0.002153876977128804</v>
+        <v>0.002201110747865468</v>
       </c>
       <c r="E168">
-        <v>0.002086256144535062</v>
+        <v>0.002124144648459831</v>
       </c>
       <c r="F168">
-        <v>0.001731122924045782</v>
+        <v>0.001823202576190487</v>
       </c>
       <c r="G168">
-        <v>0.001188083248458686</v>
+        <v>0.001455961211438657</v>
       </c>
       <c r="H168">
-        <v>0.001340583044470415</v>
-      </c>
-      <c r="I168">
-        <v>0.001320570174108061</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
+        <v>0.001693500298903554</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
       <c r="A169" s="1">
         <v>167</v>
       </c>
       <c r="B169">
-        <v>0.0006962069543062779</v>
+        <v>0.0008384389049940701</v>
       </c>
       <c r="C169">
-        <v>0.0004066501278237485</v>
+        <v>0.00039150747441183</v>
       </c>
       <c r="D169">
-        <v>0.0004082914705511165</v>
+        <v>0.000393876670272018</v>
       </c>
       <c r="E169">
-        <v>0.0004399898662140877</v>
+        <v>0.0004069625801772642</v>
       </c>
       <c r="F169">
-        <v>0.000941271742843706</v>
+        <v>0.0009586898419417948</v>
       </c>
       <c r="G169">
-        <v>0.0006372613811381789</v>
+        <v>0.0005985682454803225</v>
       </c>
       <c r="H169">
-        <v>0.0004631907295937699</v>
-      </c>
-      <c r="I169">
-        <v>0.0007618862271459518</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9">
+        <v>0.0004935227197107226</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
       <c r="A170" s="1">
         <v>168</v>
       </c>
       <c r="B170">
-        <v>0.0002581328996437855</v>
+        <v>0.0002629987711600272</v>
       </c>
       <c r="C170">
-        <v>0.0003950452643846039</v>
+        <v>0.0003569562683877688</v>
       </c>
       <c r="D170">
-        <v>0.0005249365447062419</v>
+        <v>0.0006414464963689515</v>
       </c>
       <c r="E170">
-        <v>0.0002583070818745182</v>
+        <v>0.0002357383310468521</v>
       </c>
       <c r="F170">
-        <v>0.0004215327484723932</v>
+        <v>0.0003897784485305353</v>
       </c>
       <c r="G170">
-        <v>0.0006976746344839015</v>
+        <v>0.0006957189118761736</v>
       </c>
       <c r="H170">
-        <v>0.0002587901300639248</v>
-      </c>
-      <c r="I170">
-        <v>0.0005925504249539706</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
+        <v>0.0002241647109861517</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
       <c r="A171" s="1">
         <v>169</v>
       </c>
       <c r="B171">
-        <v>0.001252086837641977</v>
+        <v>0.001486102332838504</v>
       </c>
       <c r="C171">
-        <v>0.0007033983747068777</v>
+        <v>0.0007484233661608824</v>
       </c>
       <c r="D171">
-        <v>0.0008297917458280496</v>
+        <v>0.0008393579506530004</v>
       </c>
       <c r="E171">
-        <v>0.0007578855339724335</v>
+        <v>0.0007567659860179079</v>
       </c>
       <c r="F171">
-        <v>0.00136148184893</v>
+        <v>0.001335175013095563</v>
       </c>
       <c r="G171">
-        <v>0.0006554530282964235</v>
+        <v>0.0007329086286879728</v>
       </c>
       <c r="H171">
-        <v>0.00137155324634691</v>
-      </c>
-      <c r="I171">
-        <v>0.0009704649868192376</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9">
+        <v>0.00163179712093897</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
       <c r="A172" s="1">
         <v>170</v>
       </c>
       <c r="B172">
-        <v>0.0008735902288920763</v>
+        <v>0.001086663430883961</v>
       </c>
       <c r="C172">
-        <v>0.0005562541027829351</v>
+        <v>0.0006106285463813435</v>
       </c>
       <c r="D172">
-        <v>0.0008360299516853651</v>
+        <v>0.0008266171421975188</v>
       </c>
       <c r="E172">
-        <v>0.0006573849338074937</v>
+        <v>0.0006581991620064614</v>
       </c>
       <c r="F172">
-        <v>0.0008602984611996805</v>
+        <v>0.0008340369118853579</v>
       </c>
       <c r="G172">
-        <v>0.0005575503072088496</v>
+        <v>0.0006076246752710213</v>
       </c>
       <c r="H172">
-        <v>0.0007579830055980914</v>
-      </c>
-      <c r="I172">
-        <v>0.0006938058101366149</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9">
+        <v>0.0009412540703002803</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
       <c r="A173" s="1">
         <v>171</v>
       </c>
       <c r="B173">
-        <v>0.0003197879323642233</v>
+        <v>0.0003280650371163072</v>
       </c>
       <c r="C173">
-        <v>0.0002453548209542545</v>
+        <v>0.0002997152914134583</v>
       </c>
       <c r="D173">
-        <v>0.0002788563090226003</v>
+        <v>0.0003376491430996434</v>
       </c>
       <c r="E173">
-        <v>0.0002581529952515492</v>
+        <v>0.0002649035839700911</v>
       </c>
       <c r="F173">
-        <v>0.0003508393953310501</v>
+        <v>0.000438365619341435</v>
       </c>
       <c r="G173">
-        <v>0.0002424282558722747</v>
+        <v>0.0002482432276703072</v>
       </c>
       <c r="H173">
-        <v>0.0004031722288699941</v>
-      </c>
-      <c r="I173">
-        <v>0.0002496102134983889</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9">
+        <v>0.0004188066904988595</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
       <c r="A174" s="1">
         <v>172</v>
       </c>
       <c r="B174">
-        <v>0.0002390681429039673</v>
+        <v>0.0002724828444922277</v>
       </c>
       <c r="C174">
-        <v>0.0001655842275597641</v>
+        <v>0.0002091715504466627</v>
       </c>
       <c r="D174">
-        <v>0.000168172066165633</v>
+        <v>0.0002124406628779051</v>
       </c>
       <c r="E174">
-        <v>0.0003686703589689264</v>
+        <v>0.0004092850280170619</v>
       </c>
       <c r="F174">
-        <v>0.0001819228338669475</v>
+        <v>0.0002068408792154242</v>
       </c>
       <c r="G174">
-        <v>0.0002522931582346381</v>
+        <v>0.0002860059862214155</v>
       </c>
       <c r="H174">
-        <v>0.000331764084214307</v>
-      </c>
-      <c r="I174">
-        <v>0.0001522666496560417</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9">
+        <v>0.0003684093920709356</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
       <c r="A175" s="1">
         <v>173</v>
       </c>
       <c r="B175">
-        <v>0.0005243609842757001</v>
+        <v>0.0006022731007156589</v>
       </c>
       <c r="C175">
-        <v>0.0006574560303762841</v>
+        <v>0.0007647381846011215</v>
       </c>
       <c r="D175">
-        <v>0.0004555815618909631</v>
+        <v>0.0004888105495101355</v>
       </c>
       <c r="E175">
-        <v>0.0004385156239455297</v>
+        <v>0.0004757779454968381</v>
       </c>
       <c r="F175">
-        <v>0.0004952930285501105</v>
+        <v>0.0005781365736512717</v>
       </c>
       <c r="G175">
-        <v>0.0004624257873977532</v>
+        <v>0.0005491776471416282</v>
       </c>
       <c r="H175">
-        <v>0.0006111961603862272</v>
-      </c>
-      <c r="I175">
-        <v>0.0003770358297526332</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9">
+        <v>0.0006691622524211433</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
       <c r="A176" s="1">
         <v>174</v>
       </c>
       <c r="B176">
-        <v>0.0003622618357085956</v>
+        <v>0.000457626462699778</v>
       </c>
       <c r="C176">
-        <v>0.0006991813696763504</v>
+        <v>0.0007863787288329523</v>
       </c>
       <c r="D176">
-        <v>0.0007247623252528345</v>
+        <v>0.0008032994322707738</v>
       </c>
       <c r="E176">
-        <v>0.0009504254559459526</v>
+        <v>0.001048724917906061</v>
       </c>
       <c r="F176">
-        <v>0.0004541287396592213</v>
+        <v>0.0005541578331673267</v>
       </c>
       <c r="G176">
-        <v>0.0007434393778353623</v>
+        <v>0.0008345104963343231</v>
       </c>
       <c r="H176">
-        <v>0.0003693258819210306</v>
-      </c>
-      <c r="I176">
-        <v>0.0003841065195012894</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9">
+        <v>0.000466550188173063</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
       <c r="A177" s="1">
         <v>175</v>
       </c>
       <c r="B177">
-        <v>0.0008939948025508196</v>
+        <v>0.001038006295208413</v>
       </c>
       <c r="C177">
-        <v>0.0005620021593632946</v>
+        <v>0.0006145831431630704</v>
       </c>
       <c r="D177">
-        <v>0.0005897465431128102</v>
+        <v>0.0007449987444201742</v>
       </c>
       <c r="E177">
-        <v>0.0006672495072504248</v>
+        <v>0.0007107948651635135</v>
       </c>
       <c r="F177">
-        <v>0.001086912226740551</v>
+        <v>0.001170590769030642</v>
       </c>
       <c r="G177">
-        <v>0.0005934948219220263</v>
+        <v>0.0006325186479084251</v>
       </c>
       <c r="H177">
-        <v>0.0009815991804078513</v>
-      </c>
-      <c r="I177">
-        <v>0.0005931850750333482</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9">
+        <v>0.001129185397618412</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
       <c r="A178" s="1">
         <v>176</v>
       </c>
       <c r="B178">
-        <v>0.0004503802484735807</v>
+        <v>0.0005144744346462081</v>
       </c>
       <c r="C178">
-        <v>0.0006383132381404164</v>
+        <v>0.0007573504933549339</v>
       </c>
       <c r="D178">
-        <v>0.0006337049983407964</v>
+        <v>0.0006974534065025922</v>
       </c>
       <c r="E178">
-        <v>0.0004472117447248169</v>
+        <v>0.0005401976511813158</v>
       </c>
       <c r="F178">
-        <v>0.001183798171250459</v>
+        <v>0.001284408756308976</v>
       </c>
       <c r="G178">
-        <v>0.000435130347423213</v>
+        <v>0.0004942305210863466</v>
       </c>
       <c r="H178">
-        <v>0.001081740489296479</v>
-      </c>
-      <c r="I178">
-        <v>0.0005036897759516097</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9">
+        <v>0.001228025929895929</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
       <c r="A179" s="1">
         <v>177</v>
       </c>
       <c r="B179">
-        <v>0.001027385746607805</v>
+        <v>0.001227386476419666</v>
       </c>
       <c r="C179">
-        <v>0.0005340359643113784</v>
+        <v>0.0005750676271540195</v>
       </c>
       <c r="D179">
-        <v>0.001052053696574455</v>
+        <v>0.001084516265403457</v>
       </c>
       <c r="E179">
-        <v>0.000872699192668629</v>
+        <v>0.0008946381680259124</v>
       </c>
       <c r="F179">
-        <v>0.0005242298326665237</v>
+        <v>0.0005732990714593748</v>
       </c>
       <c r="G179">
-        <v>0.000816802183873346</v>
+        <v>0.0009849412652795585</v>
       </c>
       <c r="H179">
-        <v>0.0006040793572932556</v>
-      </c>
-      <c r="I179">
-        <v>0.0007006252088294912</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9">
+        <v>0.0006362089544239537</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
       <c r="A180" s="1">
         <v>178</v>
       </c>
       <c r="B180">
-        <v>0.0003702486406308735</v>
+        <v>0.0004262921511340385</v>
       </c>
       <c r="C180">
-        <v>0.0008632561683756464</v>
+        <v>0.0009492933868020826</v>
       </c>
       <c r="D180">
-        <v>0.0005199961304686254</v>
+        <v>0.0006096120885943633</v>
       </c>
       <c r="E180">
-        <v>0.0003404474582245559</v>
+        <v>0.0004103526852873826</v>
       </c>
       <c r="F180">
-        <v>0.0005438978943422529</v>
+        <v>0.0006731660966662784</v>
       </c>
       <c r="G180">
-        <v>0.000307406688888519</v>
+        <v>0.0003787125549221514</v>
       </c>
       <c r="H180">
-        <v>0.000712651083655346</v>
-      </c>
-      <c r="I180">
-        <v>0.0003074989081618003</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9">
+        <v>0.0007850074663474328</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
       <c r="A181" s="1">
         <v>179</v>
       </c>
       <c r="B181">
-        <v>0.0011619933169178</v>
+        <v>0.001407768381787306</v>
       </c>
       <c r="C181">
-        <v>0.001068459151092033</v>
+        <v>0.001249461032560813</v>
       </c>
       <c r="D181">
-        <v>0.00210055053567106</v>
+        <v>0.002141853128046001</v>
       </c>
       <c r="E181">
-        <v>0.002021755841430465</v>
+        <v>0.002068981703483757</v>
       </c>
       <c r="F181">
-        <v>0.001425668024450673</v>
+        <v>0.001476484281738827</v>
       </c>
       <c r="G181">
-        <v>0.001786804664630254</v>
+        <v>0.00217852656044043</v>
       </c>
       <c r="H181">
-        <v>0.001066133638935054</v>
-      </c>
-      <c r="I181">
-        <v>0.001313798616737961</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9">
+        <v>0.001247436346689877</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
       <c r="A182" s="1">
         <v>180</v>
       </c>
       <c r="B182">
-        <v>0.0005404756126569593</v>
+        <v>0.0005954971221703658</v>
       </c>
       <c r="C182">
-        <v>0.0005269768879718476</v>
+        <v>0.0006578553508319313</v>
       </c>
       <c r="D182">
-        <v>0.000619970900223099</v>
+        <v>0.0006540280238012696</v>
       </c>
       <c r="E182">
-        <v>0.0009776530529021004</v>
+        <v>0.001038860626324495</v>
       </c>
       <c r="F182">
-        <v>0.0004772382807028257</v>
+        <v>0.0005121550877087461</v>
       </c>
       <c r="G182">
-        <v>0.001314456249624267</v>
+        <v>0.001517401244082141</v>
       </c>
       <c r="H182">
-        <v>0.0005204489279222747</v>
-      </c>
-      <c r="I182">
-        <v>0.0005458846736609612</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9">
+        <v>0.0006221344736999003</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8">
       <c r="A183" s="1">
         <v>181</v>
       </c>
       <c r="B183">
-        <v>0.0008717242118205946</v>
+        <v>0.0009526387017323143</v>
       </c>
       <c r="C183">
-        <v>0.0006461670893823702</v>
+        <v>0.0007376450281151938</v>
       </c>
       <c r="D183">
-        <v>0.0005099212224045946</v>
+        <v>0.0006441586272415667</v>
       </c>
       <c r="E183">
-        <v>0.0007079565255728603</v>
+        <v>0.000804849910320707</v>
       </c>
       <c r="F183">
-        <v>0.001279704423934663</v>
+        <v>0.001452871983756348</v>
       </c>
       <c r="G183">
-        <v>0.0005082278945219544</v>
+        <v>0.0006242122523864612</v>
       </c>
       <c r="H183">
-        <v>0.001334051161296214</v>
-      </c>
-      <c r="I183">
-        <v>0.0005809990853469704</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9">
+        <v>0.001449538242114256</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8">
       <c r="A184" s="1">
         <v>182</v>
       </c>
       <c r="B184">
-        <v>0.0006271094501486642</v>
+        <v>0.0006944493329379816</v>
       </c>
       <c r="C184">
-        <v>0.0003325888524269917</v>
+        <v>0.0004116769425580169</v>
       </c>
       <c r="D184">
-        <v>0.0005488921869145642</v>
+        <v>0.0006036131131338944</v>
       </c>
       <c r="E184">
-        <v>0.0004073278899091611</v>
+        <v>0.0004567073493767441</v>
       </c>
       <c r="F184">
-        <v>0.0003945468685272144</v>
+        <v>0.0004378727665213113</v>
       </c>
       <c r="G184">
-        <v>0.0004025832574134425</v>
+        <v>0.0004780608225987452</v>
       </c>
       <c r="H184">
-        <v>0.0004780056227042267</v>
-      </c>
-      <c r="I184">
-        <v>0.0003270573067041103</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9">
+        <v>0.0005355960156353617</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
       <c r="A185" s="1">
         <v>183</v>
       </c>
       <c r="B185">
-        <v>0.0002812794568942982</v>
+        <v>0.0003409465315624058</v>
       </c>
       <c r="C185">
-        <v>0.0007573768707621414</v>
+        <v>0.0008462904437957551</v>
       </c>
       <c r="D185">
-        <v>0.0004195048112297671</v>
+        <v>0.0004780810204682041</v>
       </c>
       <c r="E185">
-        <v>0.0003576552935667888</v>
+        <v>0.0004085476420510245</v>
       </c>
       <c r="F185">
-        <v>0.0002583298241149738</v>
+        <v>0.0003058394681134807</v>
       </c>
       <c r="G185">
-        <v>0.0002745807656828086</v>
+        <v>0.0003154995848750375</v>
       </c>
       <c r="H185">
-        <v>0.00032388225027724</v>
-      </c>
-      <c r="I185">
-        <v>0.0002359215980927732</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9">
+        <v>0.0003829691924373496</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8">
       <c r="A186" s="1">
         <v>184</v>
       </c>
       <c r="B186">
-        <v>0.0004365210813405793</v>
+        <v>0.0005043082006367682</v>
       </c>
       <c r="C186">
-        <v>0.0005199325162550824</v>
+        <v>0.0006394436477557343</v>
       </c>
       <c r="D186">
-        <v>0.0007382737421785477</v>
+        <v>0.0007653835189495918</v>
       </c>
       <c r="E186">
-        <v>0.000485388329010434</v>
+        <v>0.0005186552743504789</v>
       </c>
       <c r="F186">
-        <v>0.0005821017042819727</v>
+        <v>0.0006070173688097866</v>
       </c>
       <c r="G186">
-        <v>0.0008001789449519871</v>
+        <v>0.0009414433966783612</v>
       </c>
       <c r="H186">
-        <v>0.0004416334182388908</v>
-      </c>
-      <c r="I186">
-        <v>0.000448925355776608</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9">
+        <v>0.0005147733195836352</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8">
       <c r="A187" s="1">
         <v>185</v>
       </c>
       <c r="B187">
-        <v>0.0004528136586684899</v>
+        <v>0.0005292145344277857</v>
       </c>
       <c r="C187">
-        <v>0.0002345117145213885</v>
+        <v>0.0002955452125443257</v>
       </c>
       <c r="D187">
-        <v>0.000445599222197217</v>
+        <v>0.0004653557766359483</v>
       </c>
       <c r="E187">
-        <v>0.0002316796706125697</v>
+        <v>0.0002926672653812718</v>
       </c>
       <c r="F187">
-        <v>0.0002176497020325416</v>
+        <v>0.0002408240330793953</v>
       </c>
       <c r="G187">
-        <v>0.0004841342694342931</v>
+        <v>0.0005111433542410553</v>
       </c>
       <c r="H187">
-        <v>0.0002331358810727754</v>
-      </c>
-      <c r="I187">
-        <v>0.0002288415296228423</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9">
+        <v>0.0002810642027129643</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
       <c r="A188" s="1">
         <v>186</v>
       </c>
       <c r="B188">
-        <v>0.0006978715122209409</v>
+        <v>0.0008815886692468101</v>
       </c>
       <c r="C188">
-        <v>0.0005882865898125538</v>
+        <v>0.0006268819449708486</v>
       </c>
       <c r="D188">
-        <v>0.0006958397926426371</v>
+        <v>0.0007717951234162488</v>
       </c>
       <c r="E188">
-        <v>0.0008606032243732838</v>
+        <v>0.0008904103449834534</v>
       </c>
       <c r="F188">
-        <v>0.001311625622337021</v>
+        <v>0.001351683218104201</v>
       </c>
       <c r="G188">
-        <v>0.001044302184097595</v>
+        <v>0.001219277429957212</v>
       </c>
       <c r="H188">
-        <v>0.001954441247136254</v>
-      </c>
-      <c r="I188">
-        <v>0.0008667851776088162</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9">
+        <v>0.00219945229586038</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8">
       <c r="A189" s="1">
         <v>187</v>
       </c>
       <c r="B189">
-        <v>0.001279325377052061</v>
+        <v>0.001540922293606633</v>
       </c>
       <c r="C189">
-        <v>0.001070205923287428</v>
+        <v>0.001262514149136011</v>
       </c>
       <c r="D189">
-        <v>0.001542612617649843</v>
+        <v>0.001534042010846518</v>
       </c>
       <c r="E189">
-        <v>0.001715201848513451</v>
+        <v>0.001726754447534272</v>
       </c>
       <c r="F189">
-        <v>0.001682932891181994</v>
+        <v>0.0017450794549578</v>
       </c>
       <c r="G189">
-        <v>0.0009402566537955977</v>
+        <v>0.001140146272538466</v>
       </c>
       <c r="H189">
-        <v>0.00145678219799591</v>
-      </c>
-      <c r="I189">
-        <v>0.001225988670575942</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9">
+        <v>0.001739402134406909</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8">
       <c r="A190" s="1">
         <v>188</v>
       </c>
       <c r="B190">
-        <v>0.001187684051253112</v>
+        <v>0.001375004544922058</v>
       </c>
       <c r="C190">
-        <v>0.000766360775076941</v>
+        <v>0.000917385426585008</v>
       </c>
       <c r="D190">
-        <v>0.0006181757434986202</v>
+        <v>0.0006478980426666228</v>
       </c>
       <c r="E190">
-        <v>0.0006507274371240732</v>
+        <v>0.0006825433658613766</v>
       </c>
       <c r="F190">
-        <v>0.0008887954522323723</v>
+        <v>0.0009576651973263307</v>
       </c>
       <c r="G190">
-        <v>0.0005111747010930714</v>
+        <v>0.0006236318288256502</v>
       </c>
       <c r="H190">
-        <v>0.0005385008412373256</v>
-      </c>
-      <c r="I190">
-        <v>0.0005631657314042257</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9">
+        <v>0.0006046643587361397</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8">
       <c r="A191" s="1">
         <v>189</v>
       </c>
       <c r="B191">
-        <v>0.0002530117921405567</v>
+        <v>0.0002668643467737647</v>
       </c>
       <c r="C191">
-        <v>0.0002296171335648242</v>
+        <v>0.000235114470876786</v>
       </c>
       <c r="D191">
-        <v>0.0002178276006200103</v>
+        <v>0.0002291228054862115</v>
       </c>
       <c r="E191">
-        <v>0.0003786586522184438</v>
+        <v>0.0003954340828259951</v>
       </c>
       <c r="F191">
-        <v>0.0004603857418235482</v>
+        <v>0.0005389352433533133</v>
       </c>
       <c r="G191">
-        <v>0.0004179287533307073</v>
+        <v>0.0004983169239006998</v>
       </c>
       <c r="H191">
-        <v>0.0003005528921343862</v>
-      </c>
-      <c r="I191">
-        <v>0.0002970537127211924</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9">
+        <v>0.0003133790255179065</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8">
       <c r="A192" s="1">
         <v>190</v>
       </c>
       <c r="B192">
-        <v>0.0002945782958856676</v>
+        <v>0.0003336187824249245</v>
       </c>
       <c r="C192">
-        <v>0.0001765533475767351</v>
+        <v>0.0002046442243658494</v>
       </c>
       <c r="D192">
-        <v>0.0001422012867999936</v>
+        <v>0.0001749193741025277</v>
       </c>
       <c r="E192">
-        <v>0.0003995881158699826</v>
+        <v>0.0004301001986754733</v>
       </c>
       <c r="F192">
-        <v>0.0001334724658631971</v>
+        <v>0.0001550340063083512</v>
       </c>
       <c r="G192">
-        <v>0.0001618089587608367</v>
+        <v>0.0002038053263288433</v>
       </c>
       <c r="H192">
-        <v>0.0002498503613957295</v>
-      </c>
-      <c r="I192">
-        <v>0.0001456799556916081</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9">
+        <v>0.0002820762834440709</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8">
       <c r="A193" s="1">
         <v>191</v>
       </c>
       <c r="B193">
-        <v>0.001080110988955268</v>
+        <v>0.001204768264574612</v>
       </c>
       <c r="C193">
-        <v>0.0008494440221207885</v>
+        <v>0.0009915475264393888</v>
       </c>
       <c r="D193">
-        <v>0.0007340814125442659</v>
+        <v>0.0008016617820116463</v>
       </c>
       <c r="E193">
-        <v>0.001014874368686697</v>
+        <v>0.001096353202144918</v>
       </c>
       <c r="F193">
-        <v>0.000703622900701274</v>
+        <v>0.000812248336009494</v>
       </c>
       <c r="G193">
-        <v>0.0009153985053452533</v>
+        <v>0.001044518574904446</v>
       </c>
       <c r="H193">
-        <v>0.0007967521580704641</v>
-      </c>
-      <c r="I193">
-        <v>0.0006936448060464688</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9">
+        <v>0.000871317395751322</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8">
       <c r="A194" s="1">
         <v>192</v>
       </c>
       <c r="B194">
-        <v>0.0007771827028896222</v>
+        <v>0.0008996176813253971</v>
       </c>
       <c r="C194">
-        <v>0.0008740586943189575</v>
+        <v>0.001010160213112972</v>
       </c>
       <c r="D194">
-        <v>0.001382848536096856</v>
+        <v>0.001497086914089433</v>
       </c>
       <c r="E194">
-        <v>0.001074360260581287</v>
+        <v>0.001171317569466847</v>
       </c>
       <c r="F194">
-        <v>0.001231139381143677</v>
+        <v>0.00136844968476021</v>
       </c>
       <c r="G194">
-        <v>0.0008024247740930002</v>
+        <v>0.000927555403466051</v>
       </c>
       <c r="H194">
-        <v>0.0007407242632732362</v>
-      </c>
-      <c r="I194">
-        <v>0.0007152990025169585</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9">
+        <v>0.000916895291068436</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8">
       <c r="A195" s="1">
         <v>193</v>
       </c>
       <c r="B195">
-        <v>0.00102656793207451</v>
+        <v>0.001150052571698317</v>
       </c>
       <c r="C195">
-        <v>0.0004901226361940013</v>
+        <v>0.0006191478695554841</v>
       </c>
       <c r="D195">
-        <v>0.0005876721571022281</v>
+        <v>0.0007039193656517543</v>
       </c>
       <c r="E195">
-        <v>0.0005943560697214253</v>
+        <v>0.000696045383616521</v>
       </c>
       <c r="F195">
-        <v>0.00135168845652202</v>
+        <v>0.001498261286376355</v>
       </c>
       <c r="G195">
-        <v>0.0007217139296288731</v>
+        <v>0.0008308267712758711</v>
       </c>
       <c r="H195">
-        <v>0.0009808131436426467</v>
-      </c>
-      <c r="I195">
-        <v>0.0005426748948707149</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9">
+        <v>0.001083662284451929</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
       <c r="A196" s="1">
         <v>194</v>
       </c>
       <c r="B196">
-        <v>0.0005288673176219289</v>
+        <v>0.0005452152564161379</v>
       </c>
       <c r="C196">
-        <v>0.0003538814241568642</v>
+        <v>0.0004122414449829373</v>
       </c>
       <c r="D196">
-        <v>0.0004304323865020935</v>
+        <v>0.0004466828128814249</v>
       </c>
       <c r="E196">
-        <v>0.0003546998091356721</v>
+        <v>0.0003875170467775096</v>
       </c>
       <c r="F196">
-        <v>0.0005213226965884123</v>
+        <v>0.0006140336907160899</v>
       </c>
       <c r="G196">
-        <v>0.0007753989115106486</v>
+        <v>0.0009081797825426124</v>
       </c>
       <c r="H196">
-        <v>0.0004085912635087153</v>
-      </c>
-      <c r="I196">
-        <v>0.0004142548873479152</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9">
+        <v>0.0004240428453505655</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8">
       <c r="A197" s="1">
         <v>195</v>
       </c>
       <c r="B197">
-        <v>0.0005196552718865103</v>
+        <v>0.0006348589720430824</v>
       </c>
       <c r="C197">
-        <v>0.0004648197766233644</v>
+        <v>0.0005807298326840712</v>
       </c>
       <c r="D197">
-        <v>0.0009324946771142816</v>
+        <v>0.0009653711353968259</v>
       </c>
       <c r="E197">
-        <v>0.001009309137180872</v>
+        <v>0.001044952483297593</v>
       </c>
       <c r="F197">
-        <v>0.0004627425753495598</v>
+        <v>0.0005019844854974695</v>
       </c>
       <c r="G197">
-        <v>0.0005551500711378347</v>
+        <v>0.0006939639478976657</v>
       </c>
       <c r="H197">
-        <v>0.0005294085114974102</v>
-      </c>
-      <c r="I197">
-        <v>0.0005119553886854289</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9">
+        <v>0.0005827045541001856</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8">
       <c r="A198" s="1">
         <v>196</v>
       </c>
       <c r="B198">
-        <v>0.00142499455614156</v>
+        <v>0.001592242325210784</v>
       </c>
       <c r="C198">
-        <v>0.0009350354212104312</v>
+        <v>0.001131659039283238</v>
       </c>
       <c r="D198">
-        <v>0.001507976650926334</v>
+        <v>0.001718752118537804</v>
       </c>
       <c r="E198">
-        <v>0.001991516782543239</v>
+        <v>0.002221099689014691</v>
       </c>
       <c r="F198">
-        <v>0.001008502868012417</v>
+        <v>0.00124224667525969</v>
       </c>
       <c r="G198">
-        <v>0.0009683200626680323</v>
+        <v>0.001147121292946779</v>
       </c>
       <c r="H198">
-        <v>0.001968576611628478</v>
-      </c>
-      <c r="I198">
-        <v>0.000903421907959513</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9">
+        <v>0.002191791467793382</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8">
       <c r="A199" s="1">
         <v>197</v>
       </c>
       <c r="B199">
-        <v>0.0001696347828237449</v>
+        <v>0.000175288721510281</v>
       </c>
       <c r="C199">
-        <v>0.0001164797754391696</v>
+        <v>0.0001233166598002245</v>
       </c>
       <c r="D199">
-        <v>0.000160291410173162</v>
+        <v>0.0001848375331781907</v>
       </c>
       <c r="E199">
-        <v>0.0002162434966630394</v>
+        <v>0.0002709548614579175</v>
       </c>
       <c r="F199">
-        <v>0.000404101122109169</v>
+        <v>0.0004239634616360448</v>
       </c>
       <c r="G199">
-        <v>0.0002107253824992051</v>
+        <v>0.000196810070977715</v>
       </c>
       <c r="H199">
-        <v>0.0001430379304331057</v>
-      </c>
-      <c r="I199">
-        <v>0.0002156531146795256</v>
+        <v>0.0001468852084003603</v>
       </c>
     </row>
   </sheetData>
